--- a/Planilha.xlsx
+++ b/Planilha.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="14440" yWindow="600" windowWidth="14240" windowHeight="17300" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="181029" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -18,10 +19,10 @@
   <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
-      <sz val="12"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -49,9 +50,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -134,44 +135,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -198,32 +199,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -250,24 +233,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -279,162 +244,166 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:schemeClr val="phClr"/>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
@@ -444,22 +413,531 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Novo valor</t>
-        </is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Abertura</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Alta</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Fechamento</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Volume</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>228.6499938964844</v>
+      </c>
+      <c r="C2" t="n">
+        <v>229.3500061035156</v>
+      </c>
+      <c r="D2" t="n">
+        <v>225.7299957275391</v>
+      </c>
+      <c r="E2" t="n">
+        <v>227.3699951171875</v>
+      </c>
+      <c r="F2" t="n">
+        <v>43556100</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>224.9299926757812</v>
+      </c>
+      <c r="C3" t="n">
+        <v>227.2899932861328</v>
+      </c>
+      <c r="D3" t="n">
+        <v>224.0200042724609</v>
+      </c>
+      <c r="E3" t="n">
+        <v>226.3699951171875</v>
+      </c>
+      <c r="F3" t="n">
+        <v>42308700</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2024-09-26</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>227.3000030517578</v>
+      </c>
+      <c r="C4" t="n">
+        <v>228.5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>225.4100036621094</v>
+      </c>
+      <c r="E4" t="n">
+        <v>227.5200042724609</v>
+      </c>
+      <c r="F4" t="n">
+        <v>36636700</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>228.4600067138672</v>
+      </c>
+      <c r="C5" t="n">
+        <v>229.5200042724609</v>
+      </c>
+      <c r="D5" t="n">
+        <v>227.3000030517578</v>
+      </c>
+      <c r="E5" t="n">
+        <v>227.7899932861328</v>
+      </c>
+      <c r="F5" t="n">
+        <v>34026000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2024-09-30</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>230.0399932861328</v>
+      </c>
+      <c r="C6" t="n">
+        <v>233</v>
+      </c>
+      <c r="D6" t="n">
+        <v>229.6499938964844</v>
+      </c>
+      <c r="E6" t="n">
+        <v>233</v>
+      </c>
+      <c r="F6" t="n">
+        <v>54541900</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>229.5200042724609</v>
+      </c>
+      <c r="C7" t="n">
+        <v>229.6499938964844</v>
+      </c>
+      <c r="D7" t="n">
+        <v>223.7400054931641</v>
+      </c>
+      <c r="E7" t="n">
+        <v>226.2100067138672</v>
+      </c>
+      <c r="F7" t="n">
+        <v>63285000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2024-10-02</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>225.8899993896484</v>
+      </c>
+      <c r="C8" t="n">
+        <v>227.3699951171875</v>
+      </c>
+      <c r="D8" t="n">
+        <v>223.0200042724609</v>
+      </c>
+      <c r="E8" t="n">
+        <v>226.7799987792969</v>
+      </c>
+      <c r="F8" t="n">
+        <v>32880600</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2024-10-03</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>225.1399993896484</v>
+      </c>
+      <c r="C9" t="n">
+        <v>226.8099975585938</v>
+      </c>
+      <c r="D9" t="n">
+        <v>223.3200073242188</v>
+      </c>
+      <c r="E9" t="n">
+        <v>225.6699981689453</v>
+      </c>
+      <c r="F9" t="n">
+        <v>34044200</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2024-10-04</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>227.8999938964844</v>
+      </c>
+      <c r="C10" t="n">
+        <v>228</v>
+      </c>
+      <c r="D10" t="n">
+        <v>224.1300048828125</v>
+      </c>
+      <c r="E10" t="n">
+        <v>226.8000030517578</v>
+      </c>
+      <c r="F10" t="n">
+        <v>37245100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2024-10-07</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>224.5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>225.6900024414062</v>
+      </c>
+      <c r="D11" t="n">
+        <v>221.3300018310547</v>
+      </c>
+      <c r="E11" t="n">
+        <v>221.6900024414062</v>
+      </c>
+      <c r="F11" t="n">
+        <v>39505400</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2024-10-08</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>224.3000030517578</v>
+      </c>
+      <c r="C12" t="n">
+        <v>225.9799957275391</v>
+      </c>
+      <c r="D12" t="n">
+        <v>223.25</v>
+      </c>
+      <c r="E12" t="n">
+        <v>225.7700042724609</v>
+      </c>
+      <c r="F12" t="n">
+        <v>31855700</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2024-10-09</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>225.2299957275391</v>
+      </c>
+      <c r="C13" t="n">
+        <v>229.75</v>
+      </c>
+      <c r="D13" t="n">
+        <v>224.8300018310547</v>
+      </c>
+      <c r="E13" t="n">
+        <v>229.5399932861328</v>
+      </c>
+      <c r="F13" t="n">
+        <v>33591100</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2024-10-10</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>227.7799987792969</v>
+      </c>
+      <c r="C14" t="n">
+        <v>229.5</v>
+      </c>
+      <c r="D14" t="n">
+        <v>227.1699981689453</v>
+      </c>
+      <c r="E14" t="n">
+        <v>229.0399932861328</v>
+      </c>
+      <c r="F14" t="n">
+        <v>28183500</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2024-10-11</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>229.3000030517578</v>
+      </c>
+      <c r="C15" t="n">
+        <v>229.4100036621094</v>
+      </c>
+      <c r="D15" t="n">
+        <v>227.3399963378906</v>
+      </c>
+      <c r="E15" t="n">
+        <v>227.5500030517578</v>
+      </c>
+      <c r="F15" t="n">
+        <v>31759200</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2024-10-14</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>228.6999969482422</v>
+      </c>
+      <c r="C16" t="n">
+        <v>231.7299957275391</v>
+      </c>
+      <c r="D16" t="n">
+        <v>228.6000061035156</v>
+      </c>
+      <c r="E16" t="n">
+        <v>231.3000030517578</v>
+      </c>
+      <c r="F16" t="n">
+        <v>39882100</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2024-10-15</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>233.6100006103516</v>
+      </c>
+      <c r="C17" t="n">
+        <v>237.4900054931641</v>
+      </c>
+      <c r="D17" t="n">
+        <v>232.3699951171875</v>
+      </c>
+      <c r="E17" t="n">
+        <v>233.8500061035156</v>
+      </c>
+      <c r="F17" t="n">
+        <v>64751400</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2024-10-16</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>231.6000061035156</v>
+      </c>
+      <c r="C18" t="n">
+        <v>232.1199951171875</v>
+      </c>
+      <c r="D18" t="n">
+        <v>229.8399963378906</v>
+      </c>
+      <c r="E18" t="n">
+        <v>231.7799987792969</v>
+      </c>
+      <c r="F18" t="n">
+        <v>34082200</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2024-10-17</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>233.4299926757812</v>
+      </c>
+      <c r="C19" t="n">
+        <v>233.8500061035156</v>
+      </c>
+      <c r="D19" t="n">
+        <v>230.5200042724609</v>
+      </c>
+      <c r="E19" t="n">
+        <v>232.1499938964844</v>
+      </c>
+      <c r="F19" t="n">
+        <v>32993800</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2024-10-18</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>236.1799926757812</v>
+      </c>
+      <c r="C20" t="n">
+        <v>236.1799926757812</v>
+      </c>
+      <c r="D20" t="n">
+        <v>234.0099945068359</v>
+      </c>
+      <c r="E20" t="n">
+        <v>235</v>
+      </c>
+      <c r="F20" t="n">
+        <v>46431500</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2024-10-21</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>234.4499969482422</v>
+      </c>
+      <c r="C21" t="n">
+        <v>236.8500061035156</v>
+      </c>
+      <c r="D21" t="n">
+        <v>234.4499969482422</v>
+      </c>
+      <c r="E21" t="n">
+        <v>236.4799957275391</v>
+      </c>
+      <c r="F21" t="n">
+        <v>36254500</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2024-10-22</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>233.8899993896484</v>
+      </c>
+      <c r="C22" t="n">
+        <v>236.2200012207031</v>
+      </c>
+      <c r="D22" t="n">
+        <v>232.6000061035156</v>
+      </c>
+      <c r="E22" t="n">
+        <v>235.8600006103516</v>
+      </c>
+      <c r="F22" t="n">
+        <v>38846600</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2024-10-23</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>234.0800018310547</v>
+      </c>
+      <c r="C23" t="n">
+        <v>235.1399993896484</v>
+      </c>
+      <c r="D23" t="n">
+        <v>227.7599945068359</v>
+      </c>
+      <c r="E23" t="n">
+        <v>230.7599945068359</v>
+      </c>
+      <c r="F23" t="n">
+        <v>52037200</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Planilha.xlsx
+++ b/Planilha.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -937,6 +937,28 @@
         <v>52037200</v>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2024-10-24</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>229.9170074462891</v>
+      </c>
+      <c r="C24" t="n">
+        <v>230.1656951904297</v>
+      </c>
+      <c r="D24" t="n">
+        <v>228.6184997558594</v>
+      </c>
+      <c r="E24" t="n">
+        <v>229.75</v>
+      </c>
+      <c r="F24" t="n">
+        <v>2541874</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Planilha.xlsx
+++ b/Planilha.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:DP24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,6 +452,576 @@
           <t>Volume</t>
         </is>
       </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Abertura</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Alta</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Fechamento</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Volume</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Abertura</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Alta</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Fechamento</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>Volume</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>Abertura</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>Alta</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>Fechamento</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>Volume</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>Abertura</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>Alta</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>Fechamento</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>Volume</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>Abertura</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>Alta</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>Fechamento</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>Volume</t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>Abertura</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>Alta</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
+          <t>Fechamento</t>
+        </is>
+      </c>
+      <c r="AP1" t="inlineStr">
+        <is>
+          <t>Volume</t>
+        </is>
+      </c>
+      <c r="AQ1" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="AR1" t="inlineStr">
+        <is>
+          <t>Abertura</t>
+        </is>
+      </c>
+      <c r="AS1" t="inlineStr">
+        <is>
+          <t>Alta</t>
+        </is>
+      </c>
+      <c r="AT1" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="AU1" t="inlineStr">
+        <is>
+          <t>Fechamento</t>
+        </is>
+      </c>
+      <c r="AV1" t="inlineStr">
+        <is>
+          <t>Volume</t>
+        </is>
+      </c>
+      <c r="AW1" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="AX1" t="inlineStr">
+        <is>
+          <t>Abertura</t>
+        </is>
+      </c>
+      <c r="AY1" t="inlineStr">
+        <is>
+          <t>Alta</t>
+        </is>
+      </c>
+      <c r="AZ1" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="BA1" t="inlineStr">
+        <is>
+          <t>Fechamento</t>
+        </is>
+      </c>
+      <c r="BB1" t="inlineStr">
+        <is>
+          <t>Volume</t>
+        </is>
+      </c>
+      <c r="BC1" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="BD1" t="inlineStr">
+        <is>
+          <t>Abertura</t>
+        </is>
+      </c>
+      <c r="BE1" t="inlineStr">
+        <is>
+          <t>Alta</t>
+        </is>
+      </c>
+      <c r="BF1" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="BG1" t="inlineStr">
+        <is>
+          <t>Fechamento</t>
+        </is>
+      </c>
+      <c r="BH1" t="inlineStr">
+        <is>
+          <t>Volume</t>
+        </is>
+      </c>
+      <c r="BI1" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="BJ1" t="inlineStr">
+        <is>
+          <t>Abertura</t>
+        </is>
+      </c>
+      <c r="BK1" t="inlineStr">
+        <is>
+          <t>Alta</t>
+        </is>
+      </c>
+      <c r="BL1" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="BM1" t="inlineStr">
+        <is>
+          <t>Fechamento</t>
+        </is>
+      </c>
+      <c r="BN1" t="inlineStr">
+        <is>
+          <t>Volume</t>
+        </is>
+      </c>
+      <c r="BO1" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="BP1" t="inlineStr">
+        <is>
+          <t>Abertura</t>
+        </is>
+      </c>
+      <c r="BQ1" t="inlineStr">
+        <is>
+          <t>Alta</t>
+        </is>
+      </c>
+      <c r="BR1" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="BS1" t="inlineStr">
+        <is>
+          <t>Fechamento</t>
+        </is>
+      </c>
+      <c r="BT1" t="inlineStr">
+        <is>
+          <t>Volume</t>
+        </is>
+      </c>
+      <c r="BU1" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="BV1" t="inlineStr">
+        <is>
+          <t>Abertura</t>
+        </is>
+      </c>
+      <c r="BW1" t="inlineStr">
+        <is>
+          <t>Alta</t>
+        </is>
+      </c>
+      <c r="BX1" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="BY1" t="inlineStr">
+        <is>
+          <t>Fechamento</t>
+        </is>
+      </c>
+      <c r="BZ1" t="inlineStr">
+        <is>
+          <t>Volume</t>
+        </is>
+      </c>
+      <c r="CA1" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="CB1" t="inlineStr">
+        <is>
+          <t>Abertura</t>
+        </is>
+      </c>
+      <c r="CC1" t="inlineStr">
+        <is>
+          <t>Alta</t>
+        </is>
+      </c>
+      <c r="CD1" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="CE1" t="inlineStr">
+        <is>
+          <t>Fechamento</t>
+        </is>
+      </c>
+      <c r="CF1" t="inlineStr">
+        <is>
+          <t>Volume</t>
+        </is>
+      </c>
+      <c r="CG1" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="CH1" t="inlineStr">
+        <is>
+          <t>Abertura</t>
+        </is>
+      </c>
+      <c r="CI1" t="inlineStr">
+        <is>
+          <t>Alta</t>
+        </is>
+      </c>
+      <c r="CJ1" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="CK1" t="inlineStr">
+        <is>
+          <t>Fechamento</t>
+        </is>
+      </c>
+      <c r="CL1" t="inlineStr">
+        <is>
+          <t>Volume</t>
+        </is>
+      </c>
+      <c r="CM1" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="CN1" t="inlineStr">
+        <is>
+          <t>Abertura</t>
+        </is>
+      </c>
+      <c r="CO1" t="inlineStr">
+        <is>
+          <t>Alta</t>
+        </is>
+      </c>
+      <c r="CP1" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="CQ1" t="inlineStr">
+        <is>
+          <t>Fechamento</t>
+        </is>
+      </c>
+      <c r="CR1" t="inlineStr">
+        <is>
+          <t>Volume</t>
+        </is>
+      </c>
+      <c r="CS1" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="CT1" t="inlineStr">
+        <is>
+          <t>Abertura</t>
+        </is>
+      </c>
+      <c r="CU1" t="inlineStr">
+        <is>
+          <t>Alta</t>
+        </is>
+      </c>
+      <c r="CV1" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="CW1" t="inlineStr">
+        <is>
+          <t>Fechamento</t>
+        </is>
+      </c>
+      <c r="CX1" t="inlineStr">
+        <is>
+          <t>Volume</t>
+        </is>
+      </c>
+      <c r="CY1" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="CZ1" t="inlineStr">
+        <is>
+          <t>Abertura</t>
+        </is>
+      </c>
+      <c r="DA1" t="inlineStr">
+        <is>
+          <t>Alta</t>
+        </is>
+      </c>
+      <c r="DB1" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="DC1" t="inlineStr">
+        <is>
+          <t>Fechamento</t>
+        </is>
+      </c>
+      <c r="DD1" t="inlineStr">
+        <is>
+          <t>Volume</t>
+        </is>
+      </c>
+      <c r="DE1" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="DF1" t="inlineStr">
+        <is>
+          <t>Abertura</t>
+        </is>
+      </c>
+      <c r="DG1" t="inlineStr">
+        <is>
+          <t>Alta</t>
+        </is>
+      </c>
+      <c r="DH1" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="DI1" t="inlineStr">
+        <is>
+          <t>Fechamento</t>
+        </is>
+      </c>
+      <c r="DJ1" t="inlineStr">
+        <is>
+          <t>Volume</t>
+        </is>
+      </c>
+      <c r="DK1" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="DL1" t="inlineStr">
+        <is>
+          <t>Abertura</t>
+        </is>
+      </c>
+      <c r="DM1" t="inlineStr">
+        <is>
+          <t>Alta</t>
+        </is>
+      </c>
+      <c r="DN1" t="inlineStr">
+        <is>
+          <t>Baixa</t>
+        </is>
+      </c>
+      <c r="DO1" t="inlineStr">
+        <is>
+          <t>Fechamento</t>
+        </is>
+      </c>
+      <c r="DP1" t="inlineStr">
+        <is>
+          <t>Volume</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -474,6 +1044,366 @@
       <c r="F2" t="n">
         <v>43556100</v>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>228.6499938964844</v>
+      </c>
+      <c r="I2" t="n">
+        <v>229.3500061035156</v>
+      </c>
+      <c r="J2" t="n">
+        <v>225.7299957275391</v>
+      </c>
+      <c r="K2" t="n">
+        <v>227.3699951171875</v>
+      </c>
+      <c r="L2" t="n">
+        <v>43556100</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="N2" t="n">
+        <v>433</v>
+      </c>
+      <c r="O2" t="n">
+        <v>433.3500061035156</v>
+      </c>
+      <c r="P2" t="n">
+        <v>426.1000061035156</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>429.1700134277344</v>
+      </c>
+      <c r="R2" t="n">
+        <v>17015800</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="T2" t="n">
+        <v>163.0299987792969</v>
+      </c>
+      <c r="U2" t="n">
+        <v>163.2200012207031</v>
+      </c>
+      <c r="V2" t="n">
+        <v>160.6900024414062</v>
+      </c>
+      <c r="W2" t="n">
+        <v>162.2899932861328</v>
+      </c>
+      <c r="X2" t="n">
+        <v>23332100</v>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="Z2" t="n">
+        <v>194.2700042724609</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>195.3699951171875</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>190.1300048828125</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>193.9600067138672</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>43478900</v>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="AL2" t="n">
+        <v>254.0800018310547</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>257.1900024414062</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>249.0500030517578</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>254.2700042724609</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>88491000</v>
+      </c>
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="AR2" t="n">
+        <v>116.5199966430664</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>121.8000030517578</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>115.379997253418</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>120.870002746582</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>354966800</v>
+      </c>
+      <c r="AW2" t="inlineStr">
+        <is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="AX2" t="n">
+        <v>77.87999725341797</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>78.83000183105469</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>77.66999816894531</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>78.33999633789062</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>14724800</v>
+      </c>
+      <c r="BC2" t="inlineStr">
+        <is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="BD2" t="n">
+        <v>527.719970703125</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>530.2999877929688</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>521.7100219726562</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>524.0700073242188</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>2842100</v>
+      </c>
+      <c r="BI2" t="inlineStr">
+        <is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="BJ2" t="n">
+        <v>706.6300048828125</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>722.4400024414062</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>704.4500122070312</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>722.260009765625</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>3565700</v>
+      </c>
+      <c r="BO2" t="inlineStr">
+        <is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="BP2" t="n">
+        <v>228.6499938964844</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>229.3500061035156</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>225.7299957275391</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>227.3699951171875</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>43556100</v>
+      </c>
+      <c r="BU2" t="inlineStr">
+        <is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="BV2" t="n">
+        <v>433</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>433.3500061035156</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>426.1000061035156</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>429.1700134277344</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>17015800</v>
+      </c>
+      <c r="CA2" t="inlineStr">
+        <is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="CB2" t="n">
+        <v>163.0299987792969</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>163.2200012207031</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>160.6900024414062</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>162.2899932861328</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>23332100</v>
+      </c>
+      <c r="CG2" t="inlineStr">
+        <is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="CH2" t="n">
+        <v>194.2700042724609</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>195.3699951171875</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>190.1300048828125</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>193.9600067138672</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>43478900</v>
+      </c>
+      <c r="CM2" t="inlineStr">
+        <is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="CN2" t="n">
+        <v>254.0800018310547</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>257.1900024414062</v>
+      </c>
+      <c r="CP2" t="n">
+        <v>249.0500030517578</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>254.2700042724609</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>88491000</v>
+      </c>
+      <c r="CS2" t="inlineStr">
+        <is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="CT2" t="n">
+        <v>116.5199966430664</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>121.8000030517578</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>115.379997253418</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>120.870002746582</v>
+      </c>
+      <c r="CX2" t="n">
+        <v>354966800</v>
+      </c>
+      <c r="CY2" t="inlineStr">
+        <is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="CZ2" t="n">
+        <v>77.87999725341797</v>
+      </c>
+      <c r="DA2" t="n">
+        <v>78.83000183105469</v>
+      </c>
+      <c r="DB2" t="n">
+        <v>77.66999816894531</v>
+      </c>
+      <c r="DC2" t="n">
+        <v>78.33999633789062</v>
+      </c>
+      <c r="DD2" t="n">
+        <v>14724800</v>
+      </c>
+      <c r="DE2" t="inlineStr">
+        <is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="DF2" t="n">
+        <v>527.719970703125</v>
+      </c>
+      <c r="DG2" t="n">
+        <v>530.2999877929688</v>
+      </c>
+      <c r="DH2" t="n">
+        <v>521.7100219726562</v>
+      </c>
+      <c r="DI2" t="n">
+        <v>524.0700073242188</v>
+      </c>
+      <c r="DJ2" t="n">
+        <v>2842100</v>
+      </c>
+      <c r="DK2" t="inlineStr">
+        <is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="DL2" t="n">
+        <v>706.6300048828125</v>
+      </c>
+      <c r="DM2" t="n">
+        <v>722.4400024414062</v>
+      </c>
+      <c r="DN2" t="n">
+        <v>704.4500122070312</v>
+      </c>
+      <c r="DO2" t="n">
+        <v>722.260009765625</v>
+      </c>
+      <c r="DP2" t="n">
+        <v>3565700</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -496,6 +1426,366 @@
       <c r="F3" t="n">
         <v>42308700</v>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>224.9299926757812</v>
+      </c>
+      <c r="I3" t="n">
+        <v>227.2899932861328</v>
+      </c>
+      <c r="J3" t="n">
+        <v>224.0200042724609</v>
+      </c>
+      <c r="K3" t="n">
+        <v>226.3699951171875</v>
+      </c>
+      <c r="L3" t="n">
+        <v>42308700</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
+        <v>429.8299865722656</v>
+      </c>
+      <c r="O3" t="n">
+        <v>433.1199951171875</v>
+      </c>
+      <c r="P3" t="n">
+        <v>428.5700073242188</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>432.1099853515625</v>
+      </c>
+      <c r="R3" t="n">
+        <v>13396400</v>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+      <c r="T3" t="n">
+        <v>161.4700012207031</v>
+      </c>
+      <c r="U3" t="n">
+        <v>162.8099975585938</v>
+      </c>
+      <c r="V3" t="n">
+        <v>161.3000030517578</v>
+      </c>
+      <c r="W3" t="n">
+        <v>161.4900054931641</v>
+      </c>
+      <c r="X3" t="n">
+        <v>18869200</v>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+      <c r="Z3" t="n">
+        <v>193.75</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>193.9499969482422</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>192.1600036621094</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>192.5299987792969</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>26391100</v>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+      <c r="AL3" t="n">
+        <v>252.5399932861328</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>257.0499877929688</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>252.2799987792969</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>257.0199890136719</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>65034300</v>
+      </c>
+      <c r="AQ3" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+      <c r="AR3" t="n">
+        <v>122.0199966430664</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>124.9400024414062</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>121.6100006103516</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>123.5100021362305</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>284692900</v>
+      </c>
+      <c r="AW3" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+      <c r="AX3" t="n">
+        <v>78.23000335693359</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>79.26000213623047</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>77.33999633789062</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>77.36000061035156</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>13822400</v>
+      </c>
+      <c r="BC3" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+      <c r="BD3" t="n">
+        <v>526.02001953125</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>526.1799926757812</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>516.239990234375</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>517.9000244140625</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>3211600</v>
+      </c>
+      <c r="BI3" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+      <c r="BJ3" t="n">
+        <v>721</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>725.1199951171875</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>716.2100219726562</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>721.5599975585938</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>2259800</v>
+      </c>
+      <c r="BO3" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+      <c r="BP3" t="n">
+        <v>224.9299926757812</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>227.2899932861328</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>224.0200042724609</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>226.3699951171875</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>42308700</v>
+      </c>
+      <c r="BU3" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+      <c r="BV3" t="n">
+        <v>429.8299865722656</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>433.1199951171875</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>428.5700073242188</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>432.1099853515625</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>13396400</v>
+      </c>
+      <c r="CA3" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+      <c r="CB3" t="n">
+        <v>161.4700012207031</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>162.8099975585938</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>161.3000030517578</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>161.4900054931641</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>18869200</v>
+      </c>
+      <c r="CG3" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+      <c r="CH3" t="n">
+        <v>193.75</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>193.9499969482422</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>192.1600036621094</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>192.5299987792969</v>
+      </c>
+      <c r="CL3" t="n">
+        <v>26391100</v>
+      </c>
+      <c r="CM3" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+      <c r="CN3" t="n">
+        <v>252.5399932861328</v>
+      </c>
+      <c r="CO3" t="n">
+        <v>257.0499877929688</v>
+      </c>
+      <c r="CP3" t="n">
+        <v>252.2799987792969</v>
+      </c>
+      <c r="CQ3" t="n">
+        <v>257.0199890136719</v>
+      </c>
+      <c r="CR3" t="n">
+        <v>65034300</v>
+      </c>
+      <c r="CS3" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+      <c r="CT3" t="n">
+        <v>122.0199966430664</v>
+      </c>
+      <c r="CU3" t="n">
+        <v>124.9400024414062</v>
+      </c>
+      <c r="CV3" t="n">
+        <v>121.6100006103516</v>
+      </c>
+      <c r="CW3" t="n">
+        <v>123.5100021362305</v>
+      </c>
+      <c r="CX3" t="n">
+        <v>284692900</v>
+      </c>
+      <c r="CY3" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+      <c r="CZ3" t="n">
+        <v>78.23000335693359</v>
+      </c>
+      <c r="DA3" t="n">
+        <v>79.26000213623047</v>
+      </c>
+      <c r="DB3" t="n">
+        <v>77.33999633789062</v>
+      </c>
+      <c r="DC3" t="n">
+        <v>77.36000061035156</v>
+      </c>
+      <c r="DD3" t="n">
+        <v>13822400</v>
+      </c>
+      <c r="DE3" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+      <c r="DF3" t="n">
+        <v>526.02001953125</v>
+      </c>
+      <c r="DG3" t="n">
+        <v>526.1799926757812</v>
+      </c>
+      <c r="DH3" t="n">
+        <v>516.239990234375</v>
+      </c>
+      <c r="DI3" t="n">
+        <v>517.9000244140625</v>
+      </c>
+      <c r="DJ3" t="n">
+        <v>3211600</v>
+      </c>
+      <c r="DK3" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+      <c r="DL3" t="n">
+        <v>721</v>
+      </c>
+      <c r="DM3" t="n">
+        <v>725.1199951171875</v>
+      </c>
+      <c r="DN3" t="n">
+        <v>716.2100219726562</v>
+      </c>
+      <c r="DO3" t="n">
+        <v>721.5599975585938</v>
+      </c>
+      <c r="DP3" t="n">
+        <v>2259800</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -518,6 +1808,366 @@
       <c r="F4" t="n">
         <v>36636700</v>
       </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2024-09-26</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>227.3000030517578</v>
+      </c>
+      <c r="I4" t="n">
+        <v>228.5</v>
+      </c>
+      <c r="J4" t="n">
+        <v>225.4100036621094</v>
+      </c>
+      <c r="K4" t="n">
+        <v>227.5200042724609</v>
+      </c>
+      <c r="L4" t="n">
+        <v>36636700</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>2024-09-26</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
+        <v>435.0899963378906</v>
+      </c>
+      <c r="O4" t="n">
+        <v>435.2999877929688</v>
+      </c>
+      <c r="P4" t="n">
+        <v>429.1300048828125</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>431.3099975585938</v>
+      </c>
+      <c r="R4" t="n">
+        <v>14492000</v>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>2024-09-26</t>
+        </is>
+      </c>
+      <c r="T4" t="n">
+        <v>163.6399993896484</v>
+      </c>
+      <c r="U4" t="n">
+        <v>164.0800018310547</v>
+      </c>
+      <c r="V4" t="n">
+        <v>162.2799987792969</v>
+      </c>
+      <c r="W4" t="n">
+        <v>162.7299957275391</v>
+      </c>
+      <c r="X4" t="n">
+        <v>20319300</v>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>2024-09-26</t>
+        </is>
+      </c>
+      <c r="Z4" t="n">
+        <v>194.3099975585938</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>194.5299987792969</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>189.5399932861328</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>191.1600036621094</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>36334900</v>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>2024-09-26</t>
+        </is>
+      </c>
+      <c r="AL4" t="n">
+        <v>260.6000061035156</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>261.75</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>251.5299987792969</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>254.2200012207031</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>67142200</v>
+      </c>
+      <c r="AQ4" t="inlineStr">
+        <is>
+          <t>2024-09-26</t>
+        </is>
+      </c>
+      <c r="AR4" t="n">
+        <v>126.8000030517578</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>127.6699981689453</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>121.8000030517578</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>124.0400009155273</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>302582900</v>
+      </c>
+      <c r="AW4" t="inlineStr">
+        <is>
+          <t>2024-09-26</t>
+        </is>
+      </c>
+      <c r="AX4" t="n">
+        <v>78.94499969482422</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>80.43000030517578</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>78.47000122070312</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>80.08000183105469</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>13316700</v>
+      </c>
+      <c r="BC4" t="inlineStr">
+        <is>
+          <t>2024-09-26</t>
+        </is>
+      </c>
+      <c r="BD4" t="n">
+        <v>520.510009765625</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>521.3599853515625</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>512.1099853515625</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>515.3800048828125</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>3282400</v>
+      </c>
+      <c r="BI4" t="inlineStr">
+        <is>
+          <t>2024-09-26</t>
+        </is>
+      </c>
+      <c r="BJ4" t="n">
+        <v>724.72998046875</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>725.260009765625</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>701.719970703125</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>711.4299926757812</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>2833000</v>
+      </c>
+      <c r="BO4" t="inlineStr">
+        <is>
+          <t>2024-09-26</t>
+        </is>
+      </c>
+      <c r="BP4" t="n">
+        <v>227.3000030517578</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>228.5</v>
+      </c>
+      <c r="BR4" t="n">
+        <v>225.4100036621094</v>
+      </c>
+      <c r="BS4" t="n">
+        <v>227.5200042724609</v>
+      </c>
+      <c r="BT4" t="n">
+        <v>36636700</v>
+      </c>
+      <c r="BU4" t="inlineStr">
+        <is>
+          <t>2024-09-26</t>
+        </is>
+      </c>
+      <c r="BV4" t="n">
+        <v>435.0899963378906</v>
+      </c>
+      <c r="BW4" t="n">
+        <v>435.2999877929688</v>
+      </c>
+      <c r="BX4" t="n">
+        <v>429.1300048828125</v>
+      </c>
+      <c r="BY4" t="n">
+        <v>431.3099975585938</v>
+      </c>
+      <c r="BZ4" t="n">
+        <v>14492000</v>
+      </c>
+      <c r="CA4" t="inlineStr">
+        <is>
+          <t>2024-09-26</t>
+        </is>
+      </c>
+      <c r="CB4" t="n">
+        <v>163.6399993896484</v>
+      </c>
+      <c r="CC4" t="n">
+        <v>164.0800018310547</v>
+      </c>
+      <c r="CD4" t="n">
+        <v>162.2799987792969</v>
+      </c>
+      <c r="CE4" t="n">
+        <v>162.7299957275391</v>
+      </c>
+      <c r="CF4" t="n">
+        <v>20319300</v>
+      </c>
+      <c r="CG4" t="inlineStr">
+        <is>
+          <t>2024-09-26</t>
+        </is>
+      </c>
+      <c r="CH4" t="n">
+        <v>194.3099975585938</v>
+      </c>
+      <c r="CI4" t="n">
+        <v>194.5299987792969</v>
+      </c>
+      <c r="CJ4" t="n">
+        <v>189.5399932861328</v>
+      </c>
+      <c r="CK4" t="n">
+        <v>191.1600036621094</v>
+      </c>
+      <c r="CL4" t="n">
+        <v>36334900</v>
+      </c>
+      <c r="CM4" t="inlineStr">
+        <is>
+          <t>2024-09-26</t>
+        </is>
+      </c>
+      <c r="CN4" t="n">
+        <v>260.6000061035156</v>
+      </c>
+      <c r="CO4" t="n">
+        <v>261.75</v>
+      </c>
+      <c r="CP4" t="n">
+        <v>251.5299987792969</v>
+      </c>
+      <c r="CQ4" t="n">
+        <v>254.2200012207031</v>
+      </c>
+      <c r="CR4" t="n">
+        <v>67142200</v>
+      </c>
+      <c r="CS4" t="inlineStr">
+        <is>
+          <t>2024-09-26</t>
+        </is>
+      </c>
+      <c r="CT4" t="n">
+        <v>126.8000030517578</v>
+      </c>
+      <c r="CU4" t="n">
+        <v>127.6699981689453</v>
+      </c>
+      <c r="CV4" t="n">
+        <v>121.8000030517578</v>
+      </c>
+      <c r="CW4" t="n">
+        <v>124.0400009155273</v>
+      </c>
+      <c r="CX4" t="n">
+        <v>302582900</v>
+      </c>
+      <c r="CY4" t="inlineStr">
+        <is>
+          <t>2024-09-26</t>
+        </is>
+      </c>
+      <c r="CZ4" t="n">
+        <v>78.94499969482422</v>
+      </c>
+      <c r="DA4" t="n">
+        <v>80.43000030517578</v>
+      </c>
+      <c r="DB4" t="n">
+        <v>78.47000122070312</v>
+      </c>
+      <c r="DC4" t="n">
+        <v>80.08000183105469</v>
+      </c>
+      <c r="DD4" t="n">
+        <v>13316700</v>
+      </c>
+      <c r="DE4" t="inlineStr">
+        <is>
+          <t>2024-09-26</t>
+        </is>
+      </c>
+      <c r="DF4" t="n">
+        <v>520.510009765625</v>
+      </c>
+      <c r="DG4" t="n">
+        <v>521.3599853515625</v>
+      </c>
+      <c r="DH4" t="n">
+        <v>512.1099853515625</v>
+      </c>
+      <c r="DI4" t="n">
+        <v>515.3800048828125</v>
+      </c>
+      <c r="DJ4" t="n">
+        <v>3282400</v>
+      </c>
+      <c r="DK4" t="inlineStr">
+        <is>
+          <t>2024-09-26</t>
+        </is>
+      </c>
+      <c r="DL4" t="n">
+        <v>724.72998046875</v>
+      </c>
+      <c r="DM4" t="n">
+        <v>725.260009765625</v>
+      </c>
+      <c r="DN4" t="n">
+        <v>701.719970703125</v>
+      </c>
+      <c r="DO4" t="n">
+        <v>711.4299926757812</v>
+      </c>
+      <c r="DP4" t="n">
+        <v>2833000</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -540,6 +2190,366 @@
       <c r="F5" t="n">
         <v>34026000</v>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>228.4600067138672</v>
+      </c>
+      <c r="I5" t="n">
+        <v>229.5200042724609</v>
+      </c>
+      <c r="J5" t="n">
+        <v>227.3000030517578</v>
+      </c>
+      <c r="K5" t="n">
+        <v>227.7899932861328</v>
+      </c>
+      <c r="L5" t="n">
+        <v>34026000</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
+        <v>431.5199890136719</v>
+      </c>
+      <c r="O5" t="n">
+        <v>431.8500061035156</v>
+      </c>
+      <c r="P5" t="n">
+        <v>427.4700012207031</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>428.0199890136719</v>
+      </c>
+      <c r="R5" t="n">
+        <v>14896100</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
+      <c r="T5" t="n">
+        <v>162.8099975585938</v>
+      </c>
+      <c r="U5" t="n">
+        <v>165.6999969482422</v>
+      </c>
+      <c r="V5" t="n">
+        <v>162.6300048828125</v>
+      </c>
+      <c r="W5" t="n">
+        <v>163.9499969482422</v>
+      </c>
+      <c r="X5" t="n">
+        <v>21101300</v>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
+      <c r="Z5" t="n">
+        <v>190.6799926757812</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>190.8999938964844</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>187.3399963378906</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>187.9700012207031</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>36002300</v>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
+      <c r="AL5" t="n">
+        <v>257.3800048828125</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>260.7000122070312</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>254.1199951171875</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>260.4599914550781</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>70988100</v>
+      </c>
+      <c r="AQ5" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
+      <c r="AR5" t="n">
+        <v>123.9700012207031</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>124.0299987792969</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>119.2600021362305</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>121.4000015258789</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>271009200</v>
+      </c>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
+      <c r="AX5" t="n">
+        <v>80.40000152587891</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>80.62999725341797</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>77.73000335693359</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>77.87999725341797</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>11575300</v>
+      </c>
+      <c r="BC5" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
+      <c r="BD5" t="n">
+        <v>516.52001953125</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>516.6799926757812</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>512.2999877929688</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>515.47998046875</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>2718300</v>
+      </c>
+      <c r="BI5" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
+      <c r="BJ5" t="n">
+        <v>708.3599853515625</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>710.7100219726562</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>701.25</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>707.3499755859375</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>2395600</v>
+      </c>
+      <c r="BO5" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
+      <c r="BP5" t="n">
+        <v>228.4600067138672</v>
+      </c>
+      <c r="BQ5" t="n">
+        <v>229.5200042724609</v>
+      </c>
+      <c r="BR5" t="n">
+        <v>227.3000030517578</v>
+      </c>
+      <c r="BS5" t="n">
+        <v>227.7899932861328</v>
+      </c>
+      <c r="BT5" t="n">
+        <v>34026000</v>
+      </c>
+      <c r="BU5" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
+      <c r="BV5" t="n">
+        <v>431.5199890136719</v>
+      </c>
+      <c r="BW5" t="n">
+        <v>431.8500061035156</v>
+      </c>
+      <c r="BX5" t="n">
+        <v>427.4700012207031</v>
+      </c>
+      <c r="BY5" t="n">
+        <v>428.0199890136719</v>
+      </c>
+      <c r="BZ5" t="n">
+        <v>14896100</v>
+      </c>
+      <c r="CA5" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
+      <c r="CB5" t="n">
+        <v>162.8099975585938</v>
+      </c>
+      <c r="CC5" t="n">
+        <v>165.6999969482422</v>
+      </c>
+      <c r="CD5" t="n">
+        <v>162.6300048828125</v>
+      </c>
+      <c r="CE5" t="n">
+        <v>163.9499969482422</v>
+      </c>
+      <c r="CF5" t="n">
+        <v>21101300</v>
+      </c>
+      <c r="CG5" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
+      <c r="CH5" t="n">
+        <v>190.6799926757812</v>
+      </c>
+      <c r="CI5" t="n">
+        <v>190.8999938964844</v>
+      </c>
+      <c r="CJ5" t="n">
+        <v>187.3399963378906</v>
+      </c>
+      <c r="CK5" t="n">
+        <v>187.9700012207031</v>
+      </c>
+      <c r="CL5" t="n">
+        <v>36002300</v>
+      </c>
+      <c r="CM5" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
+      <c r="CN5" t="n">
+        <v>257.3800048828125</v>
+      </c>
+      <c r="CO5" t="n">
+        <v>260.7000122070312</v>
+      </c>
+      <c r="CP5" t="n">
+        <v>254.1199951171875</v>
+      </c>
+      <c r="CQ5" t="n">
+        <v>260.4599914550781</v>
+      </c>
+      <c r="CR5" t="n">
+        <v>70988100</v>
+      </c>
+      <c r="CS5" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
+      <c r="CT5" t="n">
+        <v>123.9700012207031</v>
+      </c>
+      <c r="CU5" t="n">
+        <v>124.0299987792969</v>
+      </c>
+      <c r="CV5" t="n">
+        <v>119.2600021362305</v>
+      </c>
+      <c r="CW5" t="n">
+        <v>121.4000015258789</v>
+      </c>
+      <c r="CX5" t="n">
+        <v>271009200</v>
+      </c>
+      <c r="CY5" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
+      <c r="CZ5" t="n">
+        <v>80.40000152587891</v>
+      </c>
+      <c r="DA5" t="n">
+        <v>80.62999725341797</v>
+      </c>
+      <c r="DB5" t="n">
+        <v>77.73000335693359</v>
+      </c>
+      <c r="DC5" t="n">
+        <v>77.87999725341797</v>
+      </c>
+      <c r="DD5" t="n">
+        <v>11575300</v>
+      </c>
+      <c r="DE5" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
+      <c r="DF5" t="n">
+        <v>516.52001953125</v>
+      </c>
+      <c r="DG5" t="n">
+        <v>516.6799926757812</v>
+      </c>
+      <c r="DH5" t="n">
+        <v>512.2999877929688</v>
+      </c>
+      <c r="DI5" t="n">
+        <v>515.47998046875</v>
+      </c>
+      <c r="DJ5" t="n">
+        <v>2718300</v>
+      </c>
+      <c r="DK5" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
+      <c r="DL5" t="n">
+        <v>708.3599853515625</v>
+      </c>
+      <c r="DM5" t="n">
+        <v>710.7100219726562</v>
+      </c>
+      <c r="DN5" t="n">
+        <v>701.25</v>
+      </c>
+      <c r="DO5" t="n">
+        <v>707.3499755859375</v>
+      </c>
+      <c r="DP5" t="n">
+        <v>2395600</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -562,6 +2572,366 @@
       <c r="F6" t="n">
         <v>54541900</v>
       </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2024-09-30</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>230.0399932861328</v>
+      </c>
+      <c r="I6" t="n">
+        <v>233</v>
+      </c>
+      <c r="J6" t="n">
+        <v>229.6499938964844</v>
+      </c>
+      <c r="K6" t="n">
+        <v>233</v>
+      </c>
+      <c r="L6" t="n">
+        <v>54541900</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>2024-09-30</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
+        <v>428.2099914550781</v>
+      </c>
+      <c r="O6" t="n">
+        <v>430.4200134277344</v>
+      </c>
+      <c r="P6" t="n">
+        <v>425.3699951171875</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>430.2999877929688</v>
+      </c>
+      <c r="R6" t="n">
+        <v>16807300</v>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>2024-09-30</t>
+        </is>
+      </c>
+      <c r="T6" t="n">
+        <v>163.3200073242188</v>
+      </c>
+      <c r="U6" t="n">
+        <v>166.1499938964844</v>
+      </c>
+      <c r="V6" t="n">
+        <v>163.2599945068359</v>
+      </c>
+      <c r="W6" t="n">
+        <v>165.8500061035156</v>
+      </c>
+      <c r="X6" t="n">
+        <v>20413900</v>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>2024-09-30</t>
+        </is>
+      </c>
+      <c r="Z6" t="n">
+        <v>187.1399993896484</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>188.4900054931641</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>184.6499938964844</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>186.3300018310547</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>41583900</v>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>2024-09-30</t>
+        </is>
+      </c>
+      <c r="AL6" t="n">
+        <v>259.0400085449219</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>264.8599853515625</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>255.7700042724609</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>261.6300048828125</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>80705700</v>
+      </c>
+      <c r="AQ6" t="inlineStr">
+        <is>
+          <t>2024-09-30</t>
+        </is>
+      </c>
+      <c r="AR6" t="n">
+        <v>118.3099975585938</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>121.5</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>118.1500015258789</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>121.4400024414062</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>226553700</v>
+      </c>
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t>2024-09-30</t>
+        </is>
+      </c>
+      <c r="AX6" t="n">
+        <v>77.87000274658203</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>78.59500122070312</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>77.23999786376953</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>78.02999877929688</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>6846900</v>
+      </c>
+      <c r="BC6" t="inlineStr">
+        <is>
+          <t>2024-09-30</t>
+        </is>
+      </c>
+      <c r="BD6" t="n">
+        <v>513.8300170898438</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>518.469970703125</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>511.739990234375</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>517.780029296875</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>2587000</v>
+      </c>
+      <c r="BI6" t="inlineStr">
+        <is>
+          <t>2024-09-30</t>
+        </is>
+      </c>
+      <c r="BJ6" t="n">
+        <v>707</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>711.2100219726562</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>702.8200073242188</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>709.27001953125</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>1709900</v>
+      </c>
+      <c r="BO6" t="inlineStr">
+        <is>
+          <t>2024-09-30</t>
+        </is>
+      </c>
+      <c r="BP6" t="n">
+        <v>230.0399932861328</v>
+      </c>
+      <c r="BQ6" t="n">
+        <v>233</v>
+      </c>
+      <c r="BR6" t="n">
+        <v>229.6499938964844</v>
+      </c>
+      <c r="BS6" t="n">
+        <v>233</v>
+      </c>
+      <c r="BT6" t="n">
+        <v>54541900</v>
+      </c>
+      <c r="BU6" t="inlineStr">
+        <is>
+          <t>2024-09-30</t>
+        </is>
+      </c>
+      <c r="BV6" t="n">
+        <v>428.2099914550781</v>
+      </c>
+      <c r="BW6" t="n">
+        <v>430.4200134277344</v>
+      </c>
+      <c r="BX6" t="n">
+        <v>425.3699951171875</v>
+      </c>
+      <c r="BY6" t="n">
+        <v>430.2999877929688</v>
+      </c>
+      <c r="BZ6" t="n">
+        <v>16807300</v>
+      </c>
+      <c r="CA6" t="inlineStr">
+        <is>
+          <t>2024-09-30</t>
+        </is>
+      </c>
+      <c r="CB6" t="n">
+        <v>163.3200073242188</v>
+      </c>
+      <c r="CC6" t="n">
+        <v>166.1499938964844</v>
+      </c>
+      <c r="CD6" t="n">
+        <v>163.2599945068359</v>
+      </c>
+      <c r="CE6" t="n">
+        <v>165.8500061035156</v>
+      </c>
+      <c r="CF6" t="n">
+        <v>20413900</v>
+      </c>
+      <c r="CG6" t="inlineStr">
+        <is>
+          <t>2024-09-30</t>
+        </is>
+      </c>
+      <c r="CH6" t="n">
+        <v>187.1399993896484</v>
+      </c>
+      <c r="CI6" t="n">
+        <v>188.4900054931641</v>
+      </c>
+      <c r="CJ6" t="n">
+        <v>184.6499938964844</v>
+      </c>
+      <c r="CK6" t="n">
+        <v>186.3300018310547</v>
+      </c>
+      <c r="CL6" t="n">
+        <v>41583900</v>
+      </c>
+      <c r="CM6" t="inlineStr">
+        <is>
+          <t>2024-09-30</t>
+        </is>
+      </c>
+      <c r="CN6" t="n">
+        <v>259.0400085449219</v>
+      </c>
+      <c r="CO6" t="n">
+        <v>264.8599853515625</v>
+      </c>
+      <c r="CP6" t="n">
+        <v>255.7700042724609</v>
+      </c>
+      <c r="CQ6" t="n">
+        <v>261.6300048828125</v>
+      </c>
+      <c r="CR6" t="n">
+        <v>80705700</v>
+      </c>
+      <c r="CS6" t="inlineStr">
+        <is>
+          <t>2024-09-30</t>
+        </is>
+      </c>
+      <c r="CT6" t="n">
+        <v>118.3099975585938</v>
+      </c>
+      <c r="CU6" t="n">
+        <v>121.5</v>
+      </c>
+      <c r="CV6" t="n">
+        <v>118.1500015258789</v>
+      </c>
+      <c r="CW6" t="n">
+        <v>121.4400024414062</v>
+      </c>
+      <c r="CX6" t="n">
+        <v>226553700</v>
+      </c>
+      <c r="CY6" t="inlineStr">
+        <is>
+          <t>2024-09-30</t>
+        </is>
+      </c>
+      <c r="CZ6" t="n">
+        <v>77.87000274658203</v>
+      </c>
+      <c r="DA6" t="n">
+        <v>78.59500122070312</v>
+      </c>
+      <c r="DB6" t="n">
+        <v>77.23999786376953</v>
+      </c>
+      <c r="DC6" t="n">
+        <v>78.02999877929688</v>
+      </c>
+      <c r="DD6" t="n">
+        <v>6846900</v>
+      </c>
+      <c r="DE6" t="inlineStr">
+        <is>
+          <t>2024-09-30</t>
+        </is>
+      </c>
+      <c r="DF6" t="n">
+        <v>513.8300170898438</v>
+      </c>
+      <c r="DG6" t="n">
+        <v>518.469970703125</v>
+      </c>
+      <c r="DH6" t="n">
+        <v>511.739990234375</v>
+      </c>
+      <c r="DI6" t="n">
+        <v>517.780029296875</v>
+      </c>
+      <c r="DJ6" t="n">
+        <v>2587000</v>
+      </c>
+      <c r="DK6" t="inlineStr">
+        <is>
+          <t>2024-09-30</t>
+        </is>
+      </c>
+      <c r="DL6" t="n">
+        <v>707</v>
+      </c>
+      <c r="DM6" t="n">
+        <v>711.2100219726562</v>
+      </c>
+      <c r="DN6" t="n">
+        <v>702.8200073242188</v>
+      </c>
+      <c r="DO6" t="n">
+        <v>709.27001953125</v>
+      </c>
+      <c r="DP6" t="n">
+        <v>1709900</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -584,6 +2954,366 @@
       <c r="F7" t="n">
         <v>63285000</v>
       </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>229.5200042724609</v>
+      </c>
+      <c r="I7" t="n">
+        <v>229.6499938964844</v>
+      </c>
+      <c r="J7" t="n">
+        <v>223.7400054931641</v>
+      </c>
+      <c r="K7" t="n">
+        <v>226.2100067138672</v>
+      </c>
+      <c r="L7" t="n">
+        <v>63285000</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
+        <v>428.4500122070312</v>
+      </c>
+      <c r="O7" t="n">
+        <v>428.4800109863281</v>
+      </c>
+      <c r="P7" t="n">
+        <v>418.8099975585938</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>420.6900024414062</v>
+      </c>
+      <c r="R7" t="n">
+        <v>19092900</v>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
+      <c r="T7" t="n">
+        <v>167.6900024414062</v>
+      </c>
+      <c r="U7" t="n">
+        <v>169.1600036621094</v>
+      </c>
+      <c r="V7" t="n">
+        <v>164.5800018310547</v>
+      </c>
+      <c r="W7" t="n">
+        <v>166.9900054931641</v>
+      </c>
+      <c r="X7" t="n">
+        <v>28338100</v>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
+      <c r="Z7" t="n">
+        <v>184.8999938964844</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>186.1900024414062</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>183.4499969482422</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>185.1300048828125</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>36044900</v>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
+      <c r="AL7" t="n">
+        <v>262.6700134277344</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>263.9800109863281</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>248.5299987792969</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>258.0199890136719</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>87397600</v>
+      </c>
+      <c r="AQ7" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
+      <c r="AR7" t="n">
+        <v>121.7699966430664</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>122.4400024414062</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>115.7900009155273</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>117</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>302094500</v>
+      </c>
+      <c r="AW7" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
+      <c r="AX7" t="n">
+        <v>78.20999908447266</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>79.01000213623047</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>76.38999938964844</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>77.47000122070312</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>10608700</v>
+      </c>
+      <c r="BC7" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
+      <c r="BD7" t="n">
+        <v>517.4500122070312</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>519</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>502.5</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>502.7999877929688</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>3730000</v>
+      </c>
+      <c r="BI7" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
+      <c r="BJ7" t="n">
+        <v>713.6400146484375</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>717.760009765625</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>698.5900268554688</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>706.1300048828125</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>2813500</v>
+      </c>
+      <c r="BO7" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
+      <c r="BP7" t="n">
+        <v>229.5200042724609</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>229.6499938964844</v>
+      </c>
+      <c r="BR7" t="n">
+        <v>223.7400054931641</v>
+      </c>
+      <c r="BS7" t="n">
+        <v>226.2100067138672</v>
+      </c>
+      <c r="BT7" t="n">
+        <v>63285000</v>
+      </c>
+      <c r="BU7" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
+      <c r="BV7" t="n">
+        <v>428.4500122070312</v>
+      </c>
+      <c r="BW7" t="n">
+        <v>428.4800109863281</v>
+      </c>
+      <c r="BX7" t="n">
+        <v>418.8099975585938</v>
+      </c>
+      <c r="BY7" t="n">
+        <v>420.6900024414062</v>
+      </c>
+      <c r="BZ7" t="n">
+        <v>19092900</v>
+      </c>
+      <c r="CA7" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
+      <c r="CB7" t="n">
+        <v>167.6900024414062</v>
+      </c>
+      <c r="CC7" t="n">
+        <v>169.1600036621094</v>
+      </c>
+      <c r="CD7" t="n">
+        <v>164.5800018310547</v>
+      </c>
+      <c r="CE7" t="n">
+        <v>166.9900054931641</v>
+      </c>
+      <c r="CF7" t="n">
+        <v>28338100</v>
+      </c>
+      <c r="CG7" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
+      <c r="CH7" t="n">
+        <v>184.8999938964844</v>
+      </c>
+      <c r="CI7" t="n">
+        <v>186.1900024414062</v>
+      </c>
+      <c r="CJ7" t="n">
+        <v>183.4499969482422</v>
+      </c>
+      <c r="CK7" t="n">
+        <v>185.1300048828125</v>
+      </c>
+      <c r="CL7" t="n">
+        <v>36044900</v>
+      </c>
+      <c r="CM7" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
+      <c r="CN7" t="n">
+        <v>262.6700134277344</v>
+      </c>
+      <c r="CO7" t="n">
+        <v>263.9800109863281</v>
+      </c>
+      <c r="CP7" t="n">
+        <v>248.5299987792969</v>
+      </c>
+      <c r="CQ7" t="n">
+        <v>258.0199890136719</v>
+      </c>
+      <c r="CR7" t="n">
+        <v>87397600</v>
+      </c>
+      <c r="CS7" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
+      <c r="CT7" t="n">
+        <v>121.7699966430664</v>
+      </c>
+      <c r="CU7" t="n">
+        <v>122.4400024414062</v>
+      </c>
+      <c r="CV7" t="n">
+        <v>115.7900009155273</v>
+      </c>
+      <c r="CW7" t="n">
+        <v>117</v>
+      </c>
+      <c r="CX7" t="n">
+        <v>302094500</v>
+      </c>
+      <c r="CY7" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
+      <c r="CZ7" t="n">
+        <v>78.20999908447266</v>
+      </c>
+      <c r="DA7" t="n">
+        <v>79.01000213623047</v>
+      </c>
+      <c r="DB7" t="n">
+        <v>76.38999938964844</v>
+      </c>
+      <c r="DC7" t="n">
+        <v>77.47000122070312</v>
+      </c>
+      <c r="DD7" t="n">
+        <v>10608700</v>
+      </c>
+      <c r="DE7" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
+      <c r="DF7" t="n">
+        <v>517.4500122070312</v>
+      </c>
+      <c r="DG7" t="n">
+        <v>519</v>
+      </c>
+      <c r="DH7" t="n">
+        <v>502.5</v>
+      </c>
+      <c r="DI7" t="n">
+        <v>502.7999877929688</v>
+      </c>
+      <c r="DJ7" t="n">
+        <v>3730000</v>
+      </c>
+      <c r="DK7" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
+      <c r="DL7" t="n">
+        <v>713.6400146484375</v>
+      </c>
+      <c r="DM7" t="n">
+        <v>717.760009765625</v>
+      </c>
+      <c r="DN7" t="n">
+        <v>698.5900268554688</v>
+      </c>
+      <c r="DO7" t="n">
+        <v>706.1300048828125</v>
+      </c>
+      <c r="DP7" t="n">
+        <v>2813500</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -606,6 +3336,366 @@
       <c r="F8" t="n">
         <v>32880600</v>
       </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2024-10-02</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>225.8899993896484</v>
+      </c>
+      <c r="I8" t="n">
+        <v>227.3699951171875</v>
+      </c>
+      <c r="J8" t="n">
+        <v>223.0200042724609</v>
+      </c>
+      <c r="K8" t="n">
+        <v>226.7799987792969</v>
+      </c>
+      <c r="L8" t="n">
+        <v>32880600</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>2024-10-02</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
+        <v>422.5799865722656</v>
+      </c>
+      <c r="O8" t="n">
+        <v>422.8200073242188</v>
+      </c>
+      <c r="P8" t="n">
+        <v>416.7099914550781</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>417.1300048828125</v>
+      </c>
+      <c r="R8" t="n">
+        <v>16582300</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>2024-10-02</t>
+        </is>
+      </c>
+      <c r="T8" t="n">
+        <v>166.4199981689453</v>
+      </c>
+      <c r="U8" t="n">
+        <v>167.5200042724609</v>
+      </c>
+      <c r="V8" t="n">
+        <v>164.7299957275391</v>
+      </c>
+      <c r="W8" t="n">
+        <v>165.8600006103516</v>
+      </c>
+      <c r="X8" t="n">
+        <v>17760200</v>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>2024-10-02</t>
+        </is>
+      </c>
+      <c r="Z8" t="n">
+        <v>184.4400024414062</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>186.6000061035156</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>184.0399932861328</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>184.7599945068359</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>23704100</v>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>2024-10-02</t>
+        </is>
+      </c>
+      <c r="AL8" t="n">
+        <v>247.5500030517578</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>251.1600036621094</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>241.5</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>249.0200042724609</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>93983900</v>
+      </c>
+      <c r="AQ8" t="inlineStr">
+        <is>
+          <t>2024-10-02</t>
+        </is>
+      </c>
+      <c r="AR8" t="n">
+        <v>116.4400024414062</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>119.379997253418</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>115.1399993896484</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>118.8499984741211</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>221845900</v>
+      </c>
+      <c r="AW8" t="inlineStr">
+        <is>
+          <t>2024-10-02</t>
+        </is>
+      </c>
+      <c r="AX8" t="n">
+        <v>77.47000122070312</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>77.76999664306641</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>76.18000030517578</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>77.44000244140625</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>8073300</v>
+      </c>
+      <c r="BC8" t="inlineStr">
+        <is>
+          <t>2024-10-02</t>
+        </is>
+      </c>
+      <c r="BD8" t="n">
+        <v>503.8699951171875</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>510.1900024414062</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>502.8200073242188</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>505.8099975585938</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>1981600</v>
+      </c>
+      <c r="BI8" t="inlineStr">
+        <is>
+          <t>2024-10-02</t>
+        </is>
+      </c>
+      <c r="BJ8" t="n">
+        <v>706.1300048828125</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>716.2100219726562</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>704.6900024414062</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>711.0900268554688</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>1758200</v>
+      </c>
+      <c r="BO8" t="inlineStr">
+        <is>
+          <t>2024-10-02</t>
+        </is>
+      </c>
+      <c r="BP8" t="n">
+        <v>225.8899993896484</v>
+      </c>
+      <c r="BQ8" t="n">
+        <v>227.3699951171875</v>
+      </c>
+      <c r="BR8" t="n">
+        <v>223.0200042724609</v>
+      </c>
+      <c r="BS8" t="n">
+        <v>226.7799987792969</v>
+      </c>
+      <c r="BT8" t="n">
+        <v>32880600</v>
+      </c>
+      <c r="BU8" t="inlineStr">
+        <is>
+          <t>2024-10-02</t>
+        </is>
+      </c>
+      <c r="BV8" t="n">
+        <v>422.5799865722656</v>
+      </c>
+      <c r="BW8" t="n">
+        <v>422.8200073242188</v>
+      </c>
+      <c r="BX8" t="n">
+        <v>416.7099914550781</v>
+      </c>
+      <c r="BY8" t="n">
+        <v>417.1300048828125</v>
+      </c>
+      <c r="BZ8" t="n">
+        <v>16582300</v>
+      </c>
+      <c r="CA8" t="inlineStr">
+        <is>
+          <t>2024-10-02</t>
+        </is>
+      </c>
+      <c r="CB8" t="n">
+        <v>166.4199981689453</v>
+      </c>
+      <c r="CC8" t="n">
+        <v>167.5200042724609</v>
+      </c>
+      <c r="CD8" t="n">
+        <v>164.7299957275391</v>
+      </c>
+      <c r="CE8" t="n">
+        <v>165.8600006103516</v>
+      </c>
+      <c r="CF8" t="n">
+        <v>17760200</v>
+      </c>
+      <c r="CG8" t="inlineStr">
+        <is>
+          <t>2024-10-02</t>
+        </is>
+      </c>
+      <c r="CH8" t="n">
+        <v>184.4400024414062</v>
+      </c>
+      <c r="CI8" t="n">
+        <v>186.6000061035156</v>
+      </c>
+      <c r="CJ8" t="n">
+        <v>184.0399932861328</v>
+      </c>
+      <c r="CK8" t="n">
+        <v>184.7599945068359</v>
+      </c>
+      <c r="CL8" t="n">
+        <v>23704100</v>
+      </c>
+      <c r="CM8" t="inlineStr">
+        <is>
+          <t>2024-10-02</t>
+        </is>
+      </c>
+      <c r="CN8" t="n">
+        <v>247.5500030517578</v>
+      </c>
+      <c r="CO8" t="n">
+        <v>251.1600036621094</v>
+      </c>
+      <c r="CP8" t="n">
+        <v>241.5</v>
+      </c>
+      <c r="CQ8" t="n">
+        <v>249.0200042724609</v>
+      </c>
+      <c r="CR8" t="n">
+        <v>93983900</v>
+      </c>
+      <c r="CS8" t="inlineStr">
+        <is>
+          <t>2024-10-02</t>
+        </is>
+      </c>
+      <c r="CT8" t="n">
+        <v>116.4400024414062</v>
+      </c>
+      <c r="CU8" t="n">
+        <v>119.379997253418</v>
+      </c>
+      <c r="CV8" t="n">
+        <v>115.1399993896484</v>
+      </c>
+      <c r="CW8" t="n">
+        <v>118.8499984741211</v>
+      </c>
+      <c r="CX8" t="n">
+        <v>221845900</v>
+      </c>
+      <c r="CY8" t="inlineStr">
+        <is>
+          <t>2024-10-02</t>
+        </is>
+      </c>
+      <c r="CZ8" t="n">
+        <v>77.47000122070312</v>
+      </c>
+      <c r="DA8" t="n">
+        <v>77.76999664306641</v>
+      </c>
+      <c r="DB8" t="n">
+        <v>76.18000030517578</v>
+      </c>
+      <c r="DC8" t="n">
+        <v>77.44000244140625</v>
+      </c>
+      <c r="DD8" t="n">
+        <v>8073300</v>
+      </c>
+      <c r="DE8" t="inlineStr">
+        <is>
+          <t>2024-10-02</t>
+        </is>
+      </c>
+      <c r="DF8" t="n">
+        <v>503.8699951171875</v>
+      </c>
+      <c r="DG8" t="n">
+        <v>510.1900024414062</v>
+      </c>
+      <c r="DH8" t="n">
+        <v>502.8200073242188</v>
+      </c>
+      <c r="DI8" t="n">
+        <v>505.8099975585938</v>
+      </c>
+      <c r="DJ8" t="n">
+        <v>1981600</v>
+      </c>
+      <c r="DK8" t="inlineStr">
+        <is>
+          <t>2024-10-02</t>
+        </is>
+      </c>
+      <c r="DL8" t="n">
+        <v>706.1300048828125</v>
+      </c>
+      <c r="DM8" t="n">
+        <v>716.2100219726562</v>
+      </c>
+      <c r="DN8" t="n">
+        <v>704.6900024414062</v>
+      </c>
+      <c r="DO8" t="n">
+        <v>711.0900268554688</v>
+      </c>
+      <c r="DP8" t="n">
+        <v>1758200</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -628,6 +3718,366 @@
       <c r="F9" t="n">
         <v>34044200</v>
       </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2024-10-03</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>225.1399993896484</v>
+      </c>
+      <c r="I9" t="n">
+        <v>226.8099975585938</v>
+      </c>
+      <c r="J9" t="n">
+        <v>223.3200073242188</v>
+      </c>
+      <c r="K9" t="n">
+        <v>225.6699981689453</v>
+      </c>
+      <c r="L9" t="n">
+        <v>34044200</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>2024-10-03</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
+        <v>417.6300048828125</v>
+      </c>
+      <c r="O9" t="n">
+        <v>419.5499877929688</v>
+      </c>
+      <c r="P9" t="n">
+        <v>414.2900085449219</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>416.5400085449219</v>
+      </c>
+      <c r="R9" t="n">
+        <v>13686400</v>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>2024-10-03</t>
+        </is>
+      </c>
+      <c r="T9" t="n">
+        <v>164.4100036621094</v>
+      </c>
+      <c r="U9" t="n">
+        <v>166.6399993896484</v>
+      </c>
+      <c r="V9" t="n">
+        <v>163.9199981689453</v>
+      </c>
+      <c r="W9" t="n">
+        <v>165.8600006103516</v>
+      </c>
+      <c r="X9" t="n">
+        <v>15073100</v>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>2024-10-03</t>
+        </is>
+      </c>
+      <c r="Z9" t="n">
+        <v>183.0500030517578</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>183.4400024414062</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>180.8800048828125</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>181.9600067138672</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>30204300</v>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>2024-10-03</t>
+        </is>
+      </c>
+      <c r="AL9" t="n">
+        <v>244.4799957275391</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>249.7899932861328</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>237.8099975585938</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>240.6600036621094</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>80729200</v>
+      </c>
+      <c r="AQ9" t="inlineStr">
+        <is>
+          <t>2024-10-03</t>
+        </is>
+      </c>
+      <c r="AR9" t="n">
+        <v>120.9199981689453</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>124.3600006103516</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>120.3399963378906</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>122.8499984741211</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>277118000</v>
+      </c>
+      <c r="AW9" t="inlineStr">
+        <is>
+          <t>2024-10-03</t>
+        </is>
+      </c>
+      <c r="AX9" t="n">
+        <v>76.52999877929688</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>77.40000152587891</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>76.04000091552734</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>77.30999755859375</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>9121300</v>
+      </c>
+      <c r="BC9" t="inlineStr">
+        <is>
+          <t>2024-10-03</t>
+        </is>
+      </c>
+      <c r="BD9" t="n">
+        <v>501.0199890136719</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>509.8099975585938</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>498.5899963378906</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>503.7999877929688</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>1921600</v>
+      </c>
+      <c r="BI9" t="inlineStr">
+        <is>
+          <t>2024-10-03</t>
+        </is>
+      </c>
+      <c r="BJ9" t="n">
+        <v>704.260009765625</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>708.8099975585938</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>700</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>706.7999877929688</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>2256400</v>
+      </c>
+      <c r="BO9" t="inlineStr">
+        <is>
+          <t>2024-10-03</t>
+        </is>
+      </c>
+      <c r="BP9" t="n">
+        <v>225.1399993896484</v>
+      </c>
+      <c r="BQ9" t="n">
+        <v>226.8099975585938</v>
+      </c>
+      <c r="BR9" t="n">
+        <v>223.3200073242188</v>
+      </c>
+      <c r="BS9" t="n">
+        <v>225.6699981689453</v>
+      </c>
+      <c r="BT9" t="n">
+        <v>34044200</v>
+      </c>
+      <c r="BU9" t="inlineStr">
+        <is>
+          <t>2024-10-03</t>
+        </is>
+      </c>
+      <c r="BV9" t="n">
+        <v>417.6300048828125</v>
+      </c>
+      <c r="BW9" t="n">
+        <v>419.5499877929688</v>
+      </c>
+      <c r="BX9" t="n">
+        <v>414.2900085449219</v>
+      </c>
+      <c r="BY9" t="n">
+        <v>416.5400085449219</v>
+      </c>
+      <c r="BZ9" t="n">
+        <v>13686400</v>
+      </c>
+      <c r="CA9" t="inlineStr">
+        <is>
+          <t>2024-10-03</t>
+        </is>
+      </c>
+      <c r="CB9" t="n">
+        <v>164.4100036621094</v>
+      </c>
+      <c r="CC9" t="n">
+        <v>166.6399993896484</v>
+      </c>
+      <c r="CD9" t="n">
+        <v>163.9199981689453</v>
+      </c>
+      <c r="CE9" t="n">
+        <v>165.8600006103516</v>
+      </c>
+      <c r="CF9" t="n">
+        <v>15073100</v>
+      </c>
+      <c r="CG9" t="inlineStr">
+        <is>
+          <t>2024-10-03</t>
+        </is>
+      </c>
+      <c r="CH9" t="n">
+        <v>183.0500030517578</v>
+      </c>
+      <c r="CI9" t="n">
+        <v>183.4400024414062</v>
+      </c>
+      <c r="CJ9" t="n">
+        <v>180.8800048828125</v>
+      </c>
+      <c r="CK9" t="n">
+        <v>181.9600067138672</v>
+      </c>
+      <c r="CL9" t="n">
+        <v>30204300</v>
+      </c>
+      <c r="CM9" t="inlineStr">
+        <is>
+          <t>2024-10-03</t>
+        </is>
+      </c>
+      <c r="CN9" t="n">
+        <v>244.4799957275391</v>
+      </c>
+      <c r="CO9" t="n">
+        <v>249.7899932861328</v>
+      </c>
+      <c r="CP9" t="n">
+        <v>237.8099975585938</v>
+      </c>
+      <c r="CQ9" t="n">
+        <v>240.6600036621094</v>
+      </c>
+      <c r="CR9" t="n">
+        <v>80729200</v>
+      </c>
+      <c r="CS9" t="inlineStr">
+        <is>
+          <t>2024-10-03</t>
+        </is>
+      </c>
+      <c r="CT9" t="n">
+        <v>120.9199981689453</v>
+      </c>
+      <c r="CU9" t="n">
+        <v>124.3600006103516</v>
+      </c>
+      <c r="CV9" t="n">
+        <v>120.3399963378906</v>
+      </c>
+      <c r="CW9" t="n">
+        <v>122.8499984741211</v>
+      </c>
+      <c r="CX9" t="n">
+        <v>277118000</v>
+      </c>
+      <c r="CY9" t="inlineStr">
+        <is>
+          <t>2024-10-03</t>
+        </is>
+      </c>
+      <c r="CZ9" t="n">
+        <v>76.52999877929688</v>
+      </c>
+      <c r="DA9" t="n">
+        <v>77.40000152587891</v>
+      </c>
+      <c r="DB9" t="n">
+        <v>76.04000091552734</v>
+      </c>
+      <c r="DC9" t="n">
+        <v>77.30999755859375</v>
+      </c>
+      <c r="DD9" t="n">
+        <v>9121300</v>
+      </c>
+      <c r="DE9" t="inlineStr">
+        <is>
+          <t>2024-10-03</t>
+        </is>
+      </c>
+      <c r="DF9" t="n">
+        <v>501.0199890136719</v>
+      </c>
+      <c r="DG9" t="n">
+        <v>509.8099975585938</v>
+      </c>
+      <c r="DH9" t="n">
+        <v>498.5899963378906</v>
+      </c>
+      <c r="DI9" t="n">
+        <v>503.7999877929688</v>
+      </c>
+      <c r="DJ9" t="n">
+        <v>1921600</v>
+      </c>
+      <c r="DK9" t="inlineStr">
+        <is>
+          <t>2024-10-03</t>
+        </is>
+      </c>
+      <c r="DL9" t="n">
+        <v>704.260009765625</v>
+      </c>
+      <c r="DM9" t="n">
+        <v>708.8099975585938</v>
+      </c>
+      <c r="DN9" t="n">
+        <v>700</v>
+      </c>
+      <c r="DO9" t="n">
+        <v>706.7999877929688</v>
+      </c>
+      <c r="DP9" t="n">
+        <v>2256400</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -650,6 +4100,366 @@
       <c r="F10" t="n">
         <v>37245100</v>
       </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2024-10-04</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>227.8999938964844</v>
+      </c>
+      <c r="I10" t="n">
+        <v>228</v>
+      </c>
+      <c r="J10" t="n">
+        <v>224.1300048828125</v>
+      </c>
+      <c r="K10" t="n">
+        <v>226.8000030517578</v>
+      </c>
+      <c r="L10" t="n">
+        <v>37245100</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>2024-10-04</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
+        <v>418.239990234375</v>
+      </c>
+      <c r="O10" t="n">
+        <v>419.75</v>
+      </c>
+      <c r="P10" t="n">
+        <v>414.9700012207031</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>416.0599975585938</v>
+      </c>
+      <c r="R10" t="n">
+        <v>19169700</v>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>2024-10-04</t>
+        </is>
+      </c>
+      <c r="T10" t="n">
+        <v>168.0599975585938</v>
+      </c>
+      <c r="U10" t="n">
+        <v>168.2299957275391</v>
+      </c>
+      <c r="V10" t="n">
+        <v>165.4799957275391</v>
+      </c>
+      <c r="W10" t="n">
+        <v>167.0599975585938</v>
+      </c>
+      <c r="X10" t="n">
+        <v>19047400</v>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>2024-10-04</t>
+        </is>
+      </c>
+      <c r="Z10" t="n">
+        <v>185.75</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>187.6000061035156</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>183.6000061035156</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>186.5099945068359</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>40890300</v>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>2024-10-04</t>
+        </is>
+      </c>
+      <c r="AL10" t="n">
+        <v>246.6900024414062</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>250.9600067138672</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>244.5800018310547</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>250.0800018310547</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>86573200</v>
+      </c>
+      <c r="AQ10" t="inlineStr">
+        <is>
+          <t>2024-10-04</t>
+        </is>
+      </c>
+      <c r="AR10" t="n">
+        <v>124.9400024414062</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>125.0400009155273</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>121.8300018310547</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>124.9199981689453</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>243678100</v>
+      </c>
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t>2024-10-04</t>
+        </is>
+      </c>
+      <c r="AX10" t="n">
+        <v>78.16000366210938</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>79.52999877929688</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>77.98500061035156</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>79.36000061035156</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>10070400</v>
+      </c>
+      <c r="BC10" t="inlineStr">
+        <is>
+          <t>2024-10-04</t>
+        </is>
+      </c>
+      <c r="BD10" t="n">
+        <v>507.2900085449219</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>508.5599975585938</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>503.5899963378906</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>507.2200012207031</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>1949300</v>
+      </c>
+      <c r="BI10" t="inlineStr">
+        <is>
+          <t>2024-10-04</t>
+        </is>
+      </c>
+      <c r="BJ10" t="n">
+        <v>713.3200073242188</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>721.010009765625</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>708.8200073242188</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>719.7000122070312</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>2229000</v>
+      </c>
+      <c r="BO10" t="inlineStr">
+        <is>
+          <t>2024-10-04</t>
+        </is>
+      </c>
+      <c r="BP10" t="n">
+        <v>227.8999938964844</v>
+      </c>
+      <c r="BQ10" t="n">
+        <v>228</v>
+      </c>
+      <c r="BR10" t="n">
+        <v>224.1300048828125</v>
+      </c>
+      <c r="BS10" t="n">
+        <v>226.8000030517578</v>
+      </c>
+      <c r="BT10" t="n">
+        <v>37245100</v>
+      </c>
+      <c r="BU10" t="inlineStr">
+        <is>
+          <t>2024-10-04</t>
+        </is>
+      </c>
+      <c r="BV10" t="n">
+        <v>418.239990234375</v>
+      </c>
+      <c r="BW10" t="n">
+        <v>419.75</v>
+      </c>
+      <c r="BX10" t="n">
+        <v>414.9700012207031</v>
+      </c>
+      <c r="BY10" t="n">
+        <v>416.0599975585938</v>
+      </c>
+      <c r="BZ10" t="n">
+        <v>19169700</v>
+      </c>
+      <c r="CA10" t="inlineStr">
+        <is>
+          <t>2024-10-04</t>
+        </is>
+      </c>
+      <c r="CB10" t="n">
+        <v>168.0599975585938</v>
+      </c>
+      <c r="CC10" t="n">
+        <v>168.2299957275391</v>
+      </c>
+      <c r="CD10" t="n">
+        <v>165.4799957275391</v>
+      </c>
+      <c r="CE10" t="n">
+        <v>167.0599975585938</v>
+      </c>
+      <c r="CF10" t="n">
+        <v>19047400</v>
+      </c>
+      <c r="CG10" t="inlineStr">
+        <is>
+          <t>2024-10-04</t>
+        </is>
+      </c>
+      <c r="CH10" t="n">
+        <v>185.75</v>
+      </c>
+      <c r="CI10" t="n">
+        <v>187.6000061035156</v>
+      </c>
+      <c r="CJ10" t="n">
+        <v>183.6000061035156</v>
+      </c>
+      <c r="CK10" t="n">
+        <v>186.5099945068359</v>
+      </c>
+      <c r="CL10" t="n">
+        <v>40890300</v>
+      </c>
+      <c r="CM10" t="inlineStr">
+        <is>
+          <t>2024-10-04</t>
+        </is>
+      </c>
+      <c r="CN10" t="n">
+        <v>246.6900024414062</v>
+      </c>
+      <c r="CO10" t="n">
+        <v>250.9600067138672</v>
+      </c>
+      <c r="CP10" t="n">
+        <v>244.5800018310547</v>
+      </c>
+      <c r="CQ10" t="n">
+        <v>250.0800018310547</v>
+      </c>
+      <c r="CR10" t="n">
+        <v>86573200</v>
+      </c>
+      <c r="CS10" t="inlineStr">
+        <is>
+          <t>2024-10-04</t>
+        </is>
+      </c>
+      <c r="CT10" t="n">
+        <v>124.9400024414062</v>
+      </c>
+      <c r="CU10" t="n">
+        <v>125.0400009155273</v>
+      </c>
+      <c r="CV10" t="n">
+        <v>121.8300018310547</v>
+      </c>
+      <c r="CW10" t="n">
+        <v>124.9199981689453</v>
+      </c>
+      <c r="CX10" t="n">
+        <v>243678100</v>
+      </c>
+      <c r="CY10" t="inlineStr">
+        <is>
+          <t>2024-10-04</t>
+        </is>
+      </c>
+      <c r="CZ10" t="n">
+        <v>78.16000366210938</v>
+      </c>
+      <c r="DA10" t="n">
+        <v>79.52999877929688</v>
+      </c>
+      <c r="DB10" t="n">
+        <v>77.98500061035156</v>
+      </c>
+      <c r="DC10" t="n">
+        <v>79.36000061035156</v>
+      </c>
+      <c r="DD10" t="n">
+        <v>10070400</v>
+      </c>
+      <c r="DE10" t="inlineStr">
+        <is>
+          <t>2024-10-04</t>
+        </is>
+      </c>
+      <c r="DF10" t="n">
+        <v>507.2900085449219</v>
+      </c>
+      <c r="DG10" t="n">
+        <v>508.5599975585938</v>
+      </c>
+      <c r="DH10" t="n">
+        <v>503.5899963378906</v>
+      </c>
+      <c r="DI10" t="n">
+        <v>507.2200012207031</v>
+      </c>
+      <c r="DJ10" t="n">
+        <v>1949300</v>
+      </c>
+      <c r="DK10" t="inlineStr">
+        <is>
+          <t>2024-10-04</t>
+        </is>
+      </c>
+      <c r="DL10" t="n">
+        <v>713.3200073242188</v>
+      </c>
+      <c r="DM10" t="n">
+        <v>721.010009765625</v>
+      </c>
+      <c r="DN10" t="n">
+        <v>708.8200073242188</v>
+      </c>
+      <c r="DO10" t="n">
+        <v>719.7000122070312</v>
+      </c>
+      <c r="DP10" t="n">
+        <v>2229000</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -672,6 +4482,366 @@
       <c r="F11" t="n">
         <v>39505400</v>
       </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2024-10-07</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>224.5</v>
+      </c>
+      <c r="I11" t="n">
+        <v>225.6900024414062</v>
+      </c>
+      <c r="J11" t="n">
+        <v>221.3300018310547</v>
+      </c>
+      <c r="K11" t="n">
+        <v>221.6900024414062</v>
+      </c>
+      <c r="L11" t="n">
+        <v>39505400</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>2024-10-07</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
+        <v>416</v>
+      </c>
+      <c r="O11" t="n">
+        <v>417.1099853515625</v>
+      </c>
+      <c r="P11" t="n">
+        <v>409</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>409.5400085449219</v>
+      </c>
+      <c r="R11" t="n">
+        <v>20919800</v>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>2024-10-07</t>
+        </is>
+      </c>
+      <c r="T11" t="n">
+        <v>167.7200012207031</v>
+      </c>
+      <c r="U11" t="n">
+        <v>168.4799957275391</v>
+      </c>
+      <c r="V11" t="n">
+        <v>162.75</v>
+      </c>
+      <c r="W11" t="n">
+        <v>162.9799957275391</v>
+      </c>
+      <c r="X11" t="n">
+        <v>22463100</v>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>2024-10-07</t>
+        </is>
+      </c>
+      <c r="Z11" t="n">
+        <v>182.9499969482422</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>183.6000061035156</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>180.25</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>180.8000030517578</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>42364200</v>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>2024-10-07</t>
+        </is>
+      </c>
+      <c r="AL11" t="n">
+        <v>249</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>249.8300018310547</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>240.6999969482422</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>240.8300018310547</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>68113300</v>
+      </c>
+      <c r="AQ11" t="inlineStr">
+        <is>
+          <t>2024-10-07</t>
+        </is>
+      </c>
+      <c r="AR11" t="n">
+        <v>124.9899978637695</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>130.6399993896484</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>124.9499969482422</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>127.7200012207031</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>346250200</v>
+      </c>
+      <c r="AW11" t="inlineStr">
+        <is>
+          <t>2024-10-07</t>
+        </is>
+      </c>
+      <c r="AX11" t="n">
+        <v>79.29000091552734</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>80.48999786376953</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>78.61499786376953</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>80.26000213623047</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>9206600</v>
+      </c>
+      <c r="BC11" t="inlineStr">
+        <is>
+          <t>2024-10-07</t>
+        </is>
+      </c>
+      <c r="BD11" t="n">
+        <v>503.9599914550781</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>504.8699951171875</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>486.3999938964844</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>487.2999877929688</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>4870500</v>
+      </c>
+      <c r="BI11" t="inlineStr">
+        <is>
+          <t>2024-10-07</t>
+        </is>
+      </c>
+      <c r="BJ11" t="n">
+        <v>714.760009765625</v>
+      </c>
+      <c r="BK11" t="n">
+        <v>715.8800048828125</v>
+      </c>
+      <c r="BL11" t="n">
+        <v>696.4299926757812</v>
+      </c>
+      <c r="BM11" t="n">
+        <v>701.9199829101562</v>
+      </c>
+      <c r="BN11" t="n">
+        <v>3360500</v>
+      </c>
+      <c r="BO11" t="inlineStr">
+        <is>
+          <t>2024-10-07</t>
+        </is>
+      </c>
+      <c r="BP11" t="n">
+        <v>224.5</v>
+      </c>
+      <c r="BQ11" t="n">
+        <v>225.6900024414062</v>
+      </c>
+      <c r="BR11" t="n">
+        <v>221.3300018310547</v>
+      </c>
+      <c r="BS11" t="n">
+        <v>221.6900024414062</v>
+      </c>
+      <c r="BT11" t="n">
+        <v>39505400</v>
+      </c>
+      <c r="BU11" t="inlineStr">
+        <is>
+          <t>2024-10-07</t>
+        </is>
+      </c>
+      <c r="BV11" t="n">
+        <v>416</v>
+      </c>
+      <c r="BW11" t="n">
+        <v>417.1099853515625</v>
+      </c>
+      <c r="BX11" t="n">
+        <v>409</v>
+      </c>
+      <c r="BY11" t="n">
+        <v>409.5400085449219</v>
+      </c>
+      <c r="BZ11" t="n">
+        <v>20919800</v>
+      </c>
+      <c r="CA11" t="inlineStr">
+        <is>
+          <t>2024-10-07</t>
+        </is>
+      </c>
+      <c r="CB11" t="n">
+        <v>167.7200012207031</v>
+      </c>
+      <c r="CC11" t="n">
+        <v>168.4799957275391</v>
+      </c>
+      <c r="CD11" t="n">
+        <v>162.75</v>
+      </c>
+      <c r="CE11" t="n">
+        <v>162.9799957275391</v>
+      </c>
+      <c r="CF11" t="n">
+        <v>22463100</v>
+      </c>
+      <c r="CG11" t="inlineStr">
+        <is>
+          <t>2024-10-07</t>
+        </is>
+      </c>
+      <c r="CH11" t="n">
+        <v>182.9499969482422</v>
+      </c>
+      <c r="CI11" t="n">
+        <v>183.6000061035156</v>
+      </c>
+      <c r="CJ11" t="n">
+        <v>180.25</v>
+      </c>
+      <c r="CK11" t="n">
+        <v>180.8000030517578</v>
+      </c>
+      <c r="CL11" t="n">
+        <v>42364200</v>
+      </c>
+      <c r="CM11" t="inlineStr">
+        <is>
+          <t>2024-10-07</t>
+        </is>
+      </c>
+      <c r="CN11" t="n">
+        <v>249</v>
+      </c>
+      <c r="CO11" t="n">
+        <v>249.8300018310547</v>
+      </c>
+      <c r="CP11" t="n">
+        <v>240.6999969482422</v>
+      </c>
+      <c r="CQ11" t="n">
+        <v>240.8300018310547</v>
+      </c>
+      <c r="CR11" t="n">
+        <v>68113300</v>
+      </c>
+      <c r="CS11" t="inlineStr">
+        <is>
+          <t>2024-10-07</t>
+        </is>
+      </c>
+      <c r="CT11" t="n">
+        <v>124.9899978637695</v>
+      </c>
+      <c r="CU11" t="n">
+        <v>130.6399993896484</v>
+      </c>
+      <c r="CV11" t="n">
+        <v>124.9499969482422</v>
+      </c>
+      <c r="CW11" t="n">
+        <v>127.7200012207031</v>
+      </c>
+      <c r="CX11" t="n">
+        <v>346250200</v>
+      </c>
+      <c r="CY11" t="inlineStr">
+        <is>
+          <t>2024-10-07</t>
+        </is>
+      </c>
+      <c r="CZ11" t="n">
+        <v>79.29000091552734</v>
+      </c>
+      <c r="DA11" t="n">
+        <v>80.48999786376953</v>
+      </c>
+      <c r="DB11" t="n">
+        <v>78.61499786376953</v>
+      </c>
+      <c r="DC11" t="n">
+        <v>80.26000213623047</v>
+      </c>
+      <c r="DD11" t="n">
+        <v>9206600</v>
+      </c>
+      <c r="DE11" t="inlineStr">
+        <is>
+          <t>2024-10-07</t>
+        </is>
+      </c>
+      <c r="DF11" t="n">
+        <v>503.9599914550781</v>
+      </c>
+      <c r="DG11" t="n">
+        <v>504.8699951171875</v>
+      </c>
+      <c r="DH11" t="n">
+        <v>486.3999938964844</v>
+      </c>
+      <c r="DI11" t="n">
+        <v>487.2999877929688</v>
+      </c>
+      <c r="DJ11" t="n">
+        <v>4870500</v>
+      </c>
+      <c r="DK11" t="inlineStr">
+        <is>
+          <t>2024-10-07</t>
+        </is>
+      </c>
+      <c r="DL11" t="n">
+        <v>714.760009765625</v>
+      </c>
+      <c r="DM11" t="n">
+        <v>715.8800048828125</v>
+      </c>
+      <c r="DN11" t="n">
+        <v>696.4299926757812</v>
+      </c>
+      <c r="DO11" t="n">
+        <v>701.9199829101562</v>
+      </c>
+      <c r="DP11" t="n">
+        <v>3360500</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -694,6 +4864,366 @@
       <c r="F12" t="n">
         <v>31855700</v>
       </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2024-10-08</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>224.3000030517578</v>
+      </c>
+      <c r="I12" t="n">
+        <v>225.9799957275391</v>
+      </c>
+      <c r="J12" t="n">
+        <v>223.25</v>
+      </c>
+      <c r="K12" t="n">
+        <v>225.7700042724609</v>
+      </c>
+      <c r="L12" t="n">
+        <v>31855700</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>2024-10-08</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
+        <v>410.8999938964844</v>
+      </c>
+      <c r="O12" t="n">
+        <v>415.6600036621094</v>
+      </c>
+      <c r="P12" t="n">
+        <v>408.1700134277344</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>414.7099914550781</v>
+      </c>
+      <c r="R12" t="n">
+        <v>19229300</v>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>2024-10-08</t>
+        </is>
+      </c>
+      <c r="T12" t="n">
+        <v>163.9400024414062</v>
+      </c>
+      <c r="U12" t="n">
+        <v>164.7299957275391</v>
+      </c>
+      <c r="V12" t="n">
+        <v>162.8699951171875</v>
+      </c>
+      <c r="W12" t="n">
+        <v>164.3800048828125</v>
+      </c>
+      <c r="X12" t="n">
+        <v>23072700</v>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>2024-10-08</t>
+        </is>
+      </c>
+      <c r="Z12" t="n">
+        <v>181.9199981689453</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>183.0899963378906</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>180.9199981689453</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>182.7200012207031</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>26372100</v>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>2024-10-08</t>
+        </is>
+      </c>
+      <c r="AL12" t="n">
+        <v>243.5599975585938</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>246.2100067138672</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>240.5599975585938</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>244.5</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>56303200</v>
+      </c>
+      <c r="AQ12" t="inlineStr">
+        <is>
+          <t>2024-10-08</t>
+        </is>
+      </c>
+      <c r="AR12" t="n">
+        <v>130.2599945068359</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>133.4799957275391</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>129.4199981689453</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>132.8899993896484</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>285722500</v>
+      </c>
+      <c r="AW12" t="inlineStr">
+        <is>
+          <t>2024-10-08</t>
+        </is>
+      </c>
+      <c r="AX12" t="n">
+        <v>79.98999786376953</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>81.40000152587891</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>79.57499694824219</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>81.16000366210938</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>8618500</v>
+      </c>
+      <c r="BC12" t="inlineStr">
+        <is>
+          <t>2024-10-08</t>
+        </is>
+      </c>
+      <c r="BD12" t="n">
+        <v>492.4500122070312</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>500</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>486.3999938964844</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>496.239990234375</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>3551600</v>
+      </c>
+      <c r="BI12" t="inlineStr">
+        <is>
+          <t>2024-10-08</t>
+        </is>
+      </c>
+      <c r="BJ12" t="n">
+        <v>703.8800048828125</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>725.0599975585938</v>
+      </c>
+      <c r="BL12" t="n">
+        <v>703.5499877929688</v>
+      </c>
+      <c r="BM12" t="n">
+        <v>721.760009765625</v>
+      </c>
+      <c r="BN12" t="n">
+        <v>3187400</v>
+      </c>
+      <c r="BO12" t="inlineStr">
+        <is>
+          <t>2024-10-08</t>
+        </is>
+      </c>
+      <c r="BP12" t="n">
+        <v>224.3000030517578</v>
+      </c>
+      <c r="BQ12" t="n">
+        <v>225.9799957275391</v>
+      </c>
+      <c r="BR12" t="n">
+        <v>223.25</v>
+      </c>
+      <c r="BS12" t="n">
+        <v>225.7700042724609</v>
+      </c>
+      <c r="BT12" t="n">
+        <v>31855700</v>
+      </c>
+      <c r="BU12" t="inlineStr">
+        <is>
+          <t>2024-10-08</t>
+        </is>
+      </c>
+      <c r="BV12" t="n">
+        <v>410.8999938964844</v>
+      </c>
+      <c r="BW12" t="n">
+        <v>415.6600036621094</v>
+      </c>
+      <c r="BX12" t="n">
+        <v>408.1700134277344</v>
+      </c>
+      <c r="BY12" t="n">
+        <v>414.7099914550781</v>
+      </c>
+      <c r="BZ12" t="n">
+        <v>19229300</v>
+      </c>
+      <c r="CA12" t="inlineStr">
+        <is>
+          <t>2024-10-08</t>
+        </is>
+      </c>
+      <c r="CB12" t="n">
+        <v>163.9400024414062</v>
+      </c>
+      <c r="CC12" t="n">
+        <v>164.7299957275391</v>
+      </c>
+      <c r="CD12" t="n">
+        <v>162.8699951171875</v>
+      </c>
+      <c r="CE12" t="n">
+        <v>164.3800048828125</v>
+      </c>
+      <c r="CF12" t="n">
+        <v>23072700</v>
+      </c>
+      <c r="CG12" t="inlineStr">
+        <is>
+          <t>2024-10-08</t>
+        </is>
+      </c>
+      <c r="CH12" t="n">
+        <v>181.9199981689453</v>
+      </c>
+      <c r="CI12" t="n">
+        <v>183.0899963378906</v>
+      </c>
+      <c r="CJ12" t="n">
+        <v>180.9199981689453</v>
+      </c>
+      <c r="CK12" t="n">
+        <v>182.7200012207031</v>
+      </c>
+      <c r="CL12" t="n">
+        <v>26372100</v>
+      </c>
+      <c r="CM12" t="inlineStr">
+        <is>
+          <t>2024-10-08</t>
+        </is>
+      </c>
+      <c r="CN12" t="n">
+        <v>243.5599975585938</v>
+      </c>
+      <c r="CO12" t="n">
+        <v>246.2100067138672</v>
+      </c>
+      <c r="CP12" t="n">
+        <v>240.5599975585938</v>
+      </c>
+      <c r="CQ12" t="n">
+        <v>244.5</v>
+      </c>
+      <c r="CR12" t="n">
+        <v>56303200</v>
+      </c>
+      <c r="CS12" t="inlineStr">
+        <is>
+          <t>2024-10-08</t>
+        </is>
+      </c>
+      <c r="CT12" t="n">
+        <v>130.2599945068359</v>
+      </c>
+      <c r="CU12" t="n">
+        <v>133.4799957275391</v>
+      </c>
+      <c r="CV12" t="n">
+        <v>129.4199981689453</v>
+      </c>
+      <c r="CW12" t="n">
+        <v>132.8899993896484</v>
+      </c>
+      <c r="CX12" t="n">
+        <v>285722500</v>
+      </c>
+      <c r="CY12" t="inlineStr">
+        <is>
+          <t>2024-10-08</t>
+        </is>
+      </c>
+      <c r="CZ12" t="n">
+        <v>79.98999786376953</v>
+      </c>
+      <c r="DA12" t="n">
+        <v>81.40000152587891</v>
+      </c>
+      <c r="DB12" t="n">
+        <v>79.57499694824219</v>
+      </c>
+      <c r="DC12" t="n">
+        <v>81.16000366210938</v>
+      </c>
+      <c r="DD12" t="n">
+        <v>8618500</v>
+      </c>
+      <c r="DE12" t="inlineStr">
+        <is>
+          <t>2024-10-08</t>
+        </is>
+      </c>
+      <c r="DF12" t="n">
+        <v>492.4500122070312</v>
+      </c>
+      <c r="DG12" t="n">
+        <v>500</v>
+      </c>
+      <c r="DH12" t="n">
+        <v>486.3999938964844</v>
+      </c>
+      <c r="DI12" t="n">
+        <v>496.239990234375</v>
+      </c>
+      <c r="DJ12" t="n">
+        <v>3551600</v>
+      </c>
+      <c r="DK12" t="inlineStr">
+        <is>
+          <t>2024-10-08</t>
+        </is>
+      </c>
+      <c r="DL12" t="n">
+        <v>703.8800048828125</v>
+      </c>
+      <c r="DM12" t="n">
+        <v>725.0599975585938</v>
+      </c>
+      <c r="DN12" t="n">
+        <v>703.5499877929688</v>
+      </c>
+      <c r="DO12" t="n">
+        <v>721.760009765625</v>
+      </c>
+      <c r="DP12" t="n">
+        <v>3187400</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -716,6 +5246,366 @@
       <c r="F13" t="n">
         <v>33591100</v>
       </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2024-10-09</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>225.2299957275391</v>
+      </c>
+      <c r="I13" t="n">
+        <v>229.75</v>
+      </c>
+      <c r="J13" t="n">
+        <v>224.8300018310547</v>
+      </c>
+      <c r="K13" t="n">
+        <v>229.5399932861328</v>
+      </c>
+      <c r="L13" t="n">
+        <v>33591100</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>2024-10-09</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
+        <v>415.8599853515625</v>
+      </c>
+      <c r="O13" t="n">
+        <v>420.3800048828125</v>
+      </c>
+      <c r="P13" t="n">
+        <v>414.2999877929688</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>417.4599914550781</v>
+      </c>
+      <c r="R13" t="n">
+        <v>14974300</v>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>2024-10-09</t>
+        </is>
+      </c>
+      <c r="T13" t="n">
+        <v>163.4499969482422</v>
+      </c>
+      <c r="U13" t="n">
+        <v>164.8399963378906</v>
+      </c>
+      <c r="V13" t="n">
+        <v>159.7400054931641</v>
+      </c>
+      <c r="W13" t="n">
+        <v>161.8600006103516</v>
+      </c>
+      <c r="X13" t="n">
+        <v>31181800</v>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>2024-10-09</t>
+        </is>
+      </c>
+      <c r="Z13" t="n">
+        <v>182.8200073242188</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>185.8500061035156</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>182.0500030517578</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>185.1699981689453</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>26343100</v>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>2024-10-09</t>
+        </is>
+      </c>
+      <c r="AL13" t="n">
+        <v>243.8200073242188</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>247.4299926757812</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>239.5099945068359</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>241.0500030517578</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>66289500</v>
+      </c>
+      <c r="AQ13" t="inlineStr">
+        <is>
+          <t>2024-10-09</t>
+        </is>
+      </c>
+      <c r="AR13" t="n">
+        <v>134.1100006103516</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>134.5200042724609</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>131.3800048828125</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>132.6499938964844</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>246191600</v>
+      </c>
+      <c r="AW13" t="inlineStr">
+        <is>
+          <t>2024-10-09</t>
+        </is>
+      </c>
+      <c r="AX13" t="n">
+        <v>80.87999725341797</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>82</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>80.84999847412109</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>81.65000152587891</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>6926000</v>
+      </c>
+      <c r="BC13" t="inlineStr">
+        <is>
+          <t>2024-10-09</t>
+        </is>
+      </c>
+      <c r="BD13" t="n">
+        <v>495.8800048828125</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>495.8800048828125</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>492.3200073242188</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>494.0799865722656</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>2869400</v>
+      </c>
+      <c r="BI13" t="inlineStr">
+        <is>
+          <t>2024-10-09</t>
+        </is>
+      </c>
+      <c r="BJ13" t="n">
+        <v>719.25</v>
+      </c>
+      <c r="BK13" t="n">
+        <v>728.5900268554688</v>
+      </c>
+      <c r="BL13" t="n">
+        <v>718.8699951171875</v>
+      </c>
+      <c r="BM13" t="n">
+        <v>727.4299926757812</v>
+      </c>
+      <c r="BN13" t="n">
+        <v>1981100</v>
+      </c>
+      <c r="BO13" t="inlineStr">
+        <is>
+          <t>2024-10-09</t>
+        </is>
+      </c>
+      <c r="BP13" t="n">
+        <v>225.2299957275391</v>
+      </c>
+      <c r="BQ13" t="n">
+        <v>229.75</v>
+      </c>
+      <c r="BR13" t="n">
+        <v>224.8300018310547</v>
+      </c>
+      <c r="BS13" t="n">
+        <v>229.5399932861328</v>
+      </c>
+      <c r="BT13" t="n">
+        <v>33591100</v>
+      </c>
+      <c r="BU13" t="inlineStr">
+        <is>
+          <t>2024-10-09</t>
+        </is>
+      </c>
+      <c r="BV13" t="n">
+        <v>415.8599853515625</v>
+      </c>
+      <c r="BW13" t="n">
+        <v>420.3800048828125</v>
+      </c>
+      <c r="BX13" t="n">
+        <v>414.2999877929688</v>
+      </c>
+      <c r="BY13" t="n">
+        <v>417.4599914550781</v>
+      </c>
+      <c r="BZ13" t="n">
+        <v>14974300</v>
+      </c>
+      <c r="CA13" t="inlineStr">
+        <is>
+          <t>2024-10-09</t>
+        </is>
+      </c>
+      <c r="CB13" t="n">
+        <v>163.4499969482422</v>
+      </c>
+      <c r="CC13" t="n">
+        <v>164.8399963378906</v>
+      </c>
+      <c r="CD13" t="n">
+        <v>159.7400054931641</v>
+      </c>
+      <c r="CE13" t="n">
+        <v>161.8600006103516</v>
+      </c>
+      <c r="CF13" t="n">
+        <v>31181800</v>
+      </c>
+      <c r="CG13" t="inlineStr">
+        <is>
+          <t>2024-10-09</t>
+        </is>
+      </c>
+      <c r="CH13" t="n">
+        <v>182.8200073242188</v>
+      </c>
+      <c r="CI13" t="n">
+        <v>185.8500061035156</v>
+      </c>
+      <c r="CJ13" t="n">
+        <v>182.0500030517578</v>
+      </c>
+      <c r="CK13" t="n">
+        <v>185.1699981689453</v>
+      </c>
+      <c r="CL13" t="n">
+        <v>26343100</v>
+      </c>
+      <c r="CM13" t="inlineStr">
+        <is>
+          <t>2024-10-09</t>
+        </is>
+      </c>
+      <c r="CN13" t="n">
+        <v>243.8200073242188</v>
+      </c>
+      <c r="CO13" t="n">
+        <v>247.4299926757812</v>
+      </c>
+      <c r="CP13" t="n">
+        <v>239.5099945068359</v>
+      </c>
+      <c r="CQ13" t="n">
+        <v>241.0500030517578</v>
+      </c>
+      <c r="CR13" t="n">
+        <v>66289500</v>
+      </c>
+      <c r="CS13" t="inlineStr">
+        <is>
+          <t>2024-10-09</t>
+        </is>
+      </c>
+      <c r="CT13" t="n">
+        <v>134.1100006103516</v>
+      </c>
+      <c r="CU13" t="n">
+        <v>134.5200042724609</v>
+      </c>
+      <c r="CV13" t="n">
+        <v>131.3800048828125</v>
+      </c>
+      <c r="CW13" t="n">
+        <v>132.6499938964844</v>
+      </c>
+      <c r="CX13" t="n">
+        <v>246191600</v>
+      </c>
+      <c r="CY13" t="inlineStr">
+        <is>
+          <t>2024-10-09</t>
+        </is>
+      </c>
+      <c r="CZ13" t="n">
+        <v>80.87999725341797</v>
+      </c>
+      <c r="DA13" t="n">
+        <v>82</v>
+      </c>
+      <c r="DB13" t="n">
+        <v>80.84999847412109</v>
+      </c>
+      <c r="DC13" t="n">
+        <v>81.65000152587891</v>
+      </c>
+      <c r="DD13" t="n">
+        <v>6926000</v>
+      </c>
+      <c r="DE13" t="inlineStr">
+        <is>
+          <t>2024-10-09</t>
+        </is>
+      </c>
+      <c r="DF13" t="n">
+        <v>495.8800048828125</v>
+      </c>
+      <c r="DG13" t="n">
+        <v>495.8800048828125</v>
+      </c>
+      <c r="DH13" t="n">
+        <v>492.3200073242188</v>
+      </c>
+      <c r="DI13" t="n">
+        <v>494.0799865722656</v>
+      </c>
+      <c r="DJ13" t="n">
+        <v>2869400</v>
+      </c>
+      <c r="DK13" t="inlineStr">
+        <is>
+          <t>2024-10-09</t>
+        </is>
+      </c>
+      <c r="DL13" t="n">
+        <v>719.25</v>
+      </c>
+      <c r="DM13" t="n">
+        <v>728.5900268554688</v>
+      </c>
+      <c r="DN13" t="n">
+        <v>718.8699951171875</v>
+      </c>
+      <c r="DO13" t="n">
+        <v>727.4299926757812</v>
+      </c>
+      <c r="DP13" t="n">
+        <v>1981100</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -738,6 +5628,366 @@
       <c r="F14" t="n">
         <v>28183500</v>
       </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2024-10-10</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>227.7799987792969</v>
+      </c>
+      <c r="I14" t="n">
+        <v>229.5</v>
+      </c>
+      <c r="J14" t="n">
+        <v>227.1699981689453</v>
+      </c>
+      <c r="K14" t="n">
+        <v>229.0399932861328</v>
+      </c>
+      <c r="L14" t="n">
+        <v>28183500</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>2024-10-10</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
+        <v>415.2300109863281</v>
+      </c>
+      <c r="O14" t="n">
+        <v>417.3500061035156</v>
+      </c>
+      <c r="P14" t="n">
+        <v>413.1499938964844</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>415.8399963378906</v>
+      </c>
+      <c r="R14" t="n">
+        <v>13848400</v>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>2024-10-10</t>
+        </is>
+      </c>
+      <c r="T14" t="n">
+        <v>160.8699951171875</v>
+      </c>
+      <c r="U14" t="n">
+        <v>163.0700073242188</v>
+      </c>
+      <c r="V14" t="n">
+        <v>160.3999938964844</v>
+      </c>
+      <c r="W14" t="n">
+        <v>162.0800018310547</v>
+      </c>
+      <c r="X14" t="n">
+        <v>14144100</v>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>2024-10-10</t>
+        </is>
+      </c>
+      <c r="Z14" t="n">
+        <v>187.1300048828125</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>188.1300048828125</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>185.8300018310547</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>186.6499938964844</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>27785000</v>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>2024-10-10</t>
+        </is>
+      </c>
+      <c r="AL14" t="n">
+        <v>241.8099975585938</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>242.7899932861328</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>232.3399963378906</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>238.7700042724609</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>83087100</v>
+      </c>
+      <c r="AQ14" t="inlineStr">
+        <is>
+          <t>2024-10-10</t>
+        </is>
+      </c>
+      <c r="AR14" t="n">
+        <v>131.9100036621094</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>135</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>131</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>134.8099975585938</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>242311300</v>
+      </c>
+      <c r="AW14" t="inlineStr">
+        <is>
+          <t>2024-10-10</t>
+        </is>
+      </c>
+      <c r="AX14" t="n">
+        <v>79.94000244140625</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>80.07499694824219</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>78.52999877929688</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>78.98000335693359</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>11326100</v>
+      </c>
+      <c r="BC14" t="inlineStr">
+        <is>
+          <t>2024-10-10</t>
+        </is>
+      </c>
+      <c r="BD14" t="n">
+        <v>490.5400085449219</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>506.4500122070312</v>
+      </c>
+      <c r="BF14" t="n">
+        <v>489.3500061035156</v>
+      </c>
+      <c r="BG14" t="n">
+        <v>503.5700073242188</v>
+      </c>
+      <c r="BH14" t="n">
+        <v>2775100</v>
+      </c>
+      <c r="BI14" t="inlineStr">
+        <is>
+          <t>2024-10-10</t>
+        </is>
+      </c>
+      <c r="BJ14" t="n">
+        <v>723.2899780273438</v>
+      </c>
+      <c r="BK14" t="n">
+        <v>733.8499755859375</v>
+      </c>
+      <c r="BL14" t="n">
+        <v>722.5</v>
+      </c>
+      <c r="BM14" t="n">
+        <v>730.2899780273438</v>
+      </c>
+      <c r="BN14" t="n">
+        <v>2767900</v>
+      </c>
+      <c r="BO14" t="inlineStr">
+        <is>
+          <t>2024-10-10</t>
+        </is>
+      </c>
+      <c r="BP14" t="n">
+        <v>227.7799987792969</v>
+      </c>
+      <c r="BQ14" t="n">
+        <v>229.5</v>
+      </c>
+      <c r="BR14" t="n">
+        <v>227.1699981689453</v>
+      </c>
+      <c r="BS14" t="n">
+        <v>229.0399932861328</v>
+      </c>
+      <c r="BT14" t="n">
+        <v>28183500</v>
+      </c>
+      <c r="BU14" t="inlineStr">
+        <is>
+          <t>2024-10-10</t>
+        </is>
+      </c>
+      <c r="BV14" t="n">
+        <v>415.2300109863281</v>
+      </c>
+      <c r="BW14" t="n">
+        <v>417.3500061035156</v>
+      </c>
+      <c r="BX14" t="n">
+        <v>413.1499938964844</v>
+      </c>
+      <c r="BY14" t="n">
+        <v>415.8399963378906</v>
+      </c>
+      <c r="BZ14" t="n">
+        <v>13848400</v>
+      </c>
+      <c r="CA14" t="inlineStr">
+        <is>
+          <t>2024-10-10</t>
+        </is>
+      </c>
+      <c r="CB14" t="n">
+        <v>160.8699951171875</v>
+      </c>
+      <c r="CC14" t="n">
+        <v>163.0700073242188</v>
+      </c>
+      <c r="CD14" t="n">
+        <v>160.3999938964844</v>
+      </c>
+      <c r="CE14" t="n">
+        <v>162.0800018310547</v>
+      </c>
+      <c r="CF14" t="n">
+        <v>14144100</v>
+      </c>
+      <c r="CG14" t="inlineStr">
+        <is>
+          <t>2024-10-10</t>
+        </is>
+      </c>
+      <c r="CH14" t="n">
+        <v>187.1300048828125</v>
+      </c>
+      <c r="CI14" t="n">
+        <v>188.1300048828125</v>
+      </c>
+      <c r="CJ14" t="n">
+        <v>185.8300018310547</v>
+      </c>
+      <c r="CK14" t="n">
+        <v>186.6499938964844</v>
+      </c>
+      <c r="CL14" t="n">
+        <v>27785000</v>
+      </c>
+      <c r="CM14" t="inlineStr">
+        <is>
+          <t>2024-10-10</t>
+        </is>
+      </c>
+      <c r="CN14" t="n">
+        <v>241.8099975585938</v>
+      </c>
+      <c r="CO14" t="n">
+        <v>242.7899932861328</v>
+      </c>
+      <c r="CP14" t="n">
+        <v>232.3399963378906</v>
+      </c>
+      <c r="CQ14" t="n">
+        <v>238.7700042724609</v>
+      </c>
+      <c r="CR14" t="n">
+        <v>83087100</v>
+      </c>
+      <c r="CS14" t="inlineStr">
+        <is>
+          <t>2024-10-10</t>
+        </is>
+      </c>
+      <c r="CT14" t="n">
+        <v>131.9100036621094</v>
+      </c>
+      <c r="CU14" t="n">
+        <v>135</v>
+      </c>
+      <c r="CV14" t="n">
+        <v>131</v>
+      </c>
+      <c r="CW14" t="n">
+        <v>134.8099975585938</v>
+      </c>
+      <c r="CX14" t="n">
+        <v>242311300</v>
+      </c>
+      <c r="CY14" t="inlineStr">
+        <is>
+          <t>2024-10-10</t>
+        </is>
+      </c>
+      <c r="CZ14" t="n">
+        <v>79.94000244140625</v>
+      </c>
+      <c r="DA14" t="n">
+        <v>80.07499694824219</v>
+      </c>
+      <c r="DB14" t="n">
+        <v>78.52999877929688</v>
+      </c>
+      <c r="DC14" t="n">
+        <v>78.98000335693359</v>
+      </c>
+      <c r="DD14" t="n">
+        <v>11326100</v>
+      </c>
+      <c r="DE14" t="inlineStr">
+        <is>
+          <t>2024-10-10</t>
+        </is>
+      </c>
+      <c r="DF14" t="n">
+        <v>490.5400085449219</v>
+      </c>
+      <c r="DG14" t="n">
+        <v>506.4500122070312</v>
+      </c>
+      <c r="DH14" t="n">
+        <v>489.3500061035156</v>
+      </c>
+      <c r="DI14" t="n">
+        <v>503.5700073242188</v>
+      </c>
+      <c r="DJ14" t="n">
+        <v>2775100</v>
+      </c>
+      <c r="DK14" t="inlineStr">
+        <is>
+          <t>2024-10-10</t>
+        </is>
+      </c>
+      <c r="DL14" t="n">
+        <v>723.2899780273438</v>
+      </c>
+      <c r="DM14" t="n">
+        <v>733.8499755859375</v>
+      </c>
+      <c r="DN14" t="n">
+        <v>722.5</v>
+      </c>
+      <c r="DO14" t="n">
+        <v>730.2899780273438</v>
+      </c>
+      <c r="DP14" t="n">
+        <v>2767900</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -760,6 +6010,366 @@
       <c r="F15" t="n">
         <v>31759200</v>
       </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2024-10-11</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>229.3000030517578</v>
+      </c>
+      <c r="I15" t="n">
+        <v>229.4100036621094</v>
+      </c>
+      <c r="J15" t="n">
+        <v>227.3399963378906</v>
+      </c>
+      <c r="K15" t="n">
+        <v>227.5500030517578</v>
+      </c>
+      <c r="L15" t="n">
+        <v>31759200</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>2024-10-11</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
+        <v>416.1400146484375</v>
+      </c>
+      <c r="O15" t="n">
+        <v>417.1300048828125</v>
+      </c>
+      <c r="P15" t="n">
+        <v>413.25</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>416.3200073242188</v>
+      </c>
+      <c r="R15" t="n">
+        <v>14144900</v>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>2024-10-11</t>
+        </is>
+      </c>
+      <c r="T15" t="n">
+        <v>162.1300048828125</v>
+      </c>
+      <c r="U15" t="n">
+        <v>163.8999938964844</v>
+      </c>
+      <c r="V15" t="n">
+        <v>161.2400054931641</v>
+      </c>
+      <c r="W15" t="n">
+        <v>163.2400054931641</v>
+      </c>
+      <c r="X15" t="n">
+        <v>15344300</v>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>2024-10-11</t>
+        </is>
+      </c>
+      <c r="Z15" t="n">
+        <v>186.6300048828125</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>189.9299926757812</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>186.3000030517578</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>188.8200073242188</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>25751600</v>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>2024-10-11</t>
+        </is>
+      </c>
+      <c r="AL15" t="n">
+        <v>220.1300048828125</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>223.3399963378906</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>214.3800048828125</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>217.8000030517578</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>142628900</v>
+      </c>
+      <c r="AQ15" t="inlineStr">
+        <is>
+          <t>2024-10-11</t>
+        </is>
+      </c>
+      <c r="AR15" t="n">
+        <v>134.0099945068359</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>135.7799987792969</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>133.6600036621094</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>134.8000030517578</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>170209500</v>
+      </c>
+      <c r="AW15" t="inlineStr">
+        <is>
+          <t>2024-10-11</t>
+        </is>
+      </c>
+      <c r="AX15" t="n">
+        <v>79.54000091552734</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>80.72599792480469</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>79.16000366210938</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>80.51000213623047</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>7744800</v>
+      </c>
+      <c r="BC15" t="inlineStr">
+        <is>
+          <t>2024-10-11</t>
+        </is>
+      </c>
+      <c r="BD15" t="n">
+        <v>504.7799987792969</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>507.9800109863281</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>494.8999938964844</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>495.4200134277344</v>
+      </c>
+      <c r="BH15" t="n">
+        <v>2992400</v>
+      </c>
+      <c r="BI15" t="inlineStr">
+        <is>
+          <t>2024-10-11</t>
+        </is>
+      </c>
+      <c r="BJ15" t="n">
+        <v>734.9000244140625</v>
+      </c>
+      <c r="BK15" t="n">
+        <v>736</v>
+      </c>
+      <c r="BL15" t="n">
+        <v>721.219970703125</v>
+      </c>
+      <c r="BM15" t="n">
+        <v>722.7899780273438</v>
+      </c>
+      <c r="BN15" t="n">
+        <v>2299500</v>
+      </c>
+      <c r="BO15" t="inlineStr">
+        <is>
+          <t>2024-10-11</t>
+        </is>
+      </c>
+      <c r="BP15" t="n">
+        <v>229.3000030517578</v>
+      </c>
+      <c r="BQ15" t="n">
+        <v>229.4100036621094</v>
+      </c>
+      <c r="BR15" t="n">
+        <v>227.3399963378906</v>
+      </c>
+      <c r="BS15" t="n">
+        <v>227.5500030517578</v>
+      </c>
+      <c r="BT15" t="n">
+        <v>31759200</v>
+      </c>
+      <c r="BU15" t="inlineStr">
+        <is>
+          <t>2024-10-11</t>
+        </is>
+      </c>
+      <c r="BV15" t="n">
+        <v>416.1400146484375</v>
+      </c>
+      <c r="BW15" t="n">
+        <v>417.1300048828125</v>
+      </c>
+      <c r="BX15" t="n">
+        <v>413.25</v>
+      </c>
+      <c r="BY15" t="n">
+        <v>416.3200073242188</v>
+      </c>
+      <c r="BZ15" t="n">
+        <v>14144900</v>
+      </c>
+      <c r="CA15" t="inlineStr">
+        <is>
+          <t>2024-10-11</t>
+        </is>
+      </c>
+      <c r="CB15" t="n">
+        <v>162.1300048828125</v>
+      </c>
+      <c r="CC15" t="n">
+        <v>163.8999938964844</v>
+      </c>
+      <c r="CD15" t="n">
+        <v>161.2400054931641</v>
+      </c>
+      <c r="CE15" t="n">
+        <v>163.2400054931641</v>
+      </c>
+      <c r="CF15" t="n">
+        <v>15344300</v>
+      </c>
+      <c r="CG15" t="inlineStr">
+        <is>
+          <t>2024-10-11</t>
+        </is>
+      </c>
+      <c r="CH15" t="n">
+        <v>186.6300048828125</v>
+      </c>
+      <c r="CI15" t="n">
+        <v>189.9299926757812</v>
+      </c>
+      <c r="CJ15" t="n">
+        <v>186.3000030517578</v>
+      </c>
+      <c r="CK15" t="n">
+        <v>188.8200073242188</v>
+      </c>
+      <c r="CL15" t="n">
+        <v>25751600</v>
+      </c>
+      <c r="CM15" t="inlineStr">
+        <is>
+          <t>2024-10-11</t>
+        </is>
+      </c>
+      <c r="CN15" t="n">
+        <v>220.1300048828125</v>
+      </c>
+      <c r="CO15" t="n">
+        <v>223.3399963378906</v>
+      </c>
+      <c r="CP15" t="n">
+        <v>214.3800048828125</v>
+      </c>
+      <c r="CQ15" t="n">
+        <v>217.8000030517578</v>
+      </c>
+      <c r="CR15" t="n">
+        <v>142628900</v>
+      </c>
+      <c r="CS15" t="inlineStr">
+        <is>
+          <t>2024-10-11</t>
+        </is>
+      </c>
+      <c r="CT15" t="n">
+        <v>134.0099945068359</v>
+      </c>
+      <c r="CU15" t="n">
+        <v>135.7799987792969</v>
+      </c>
+      <c r="CV15" t="n">
+        <v>133.6600036621094</v>
+      </c>
+      <c r="CW15" t="n">
+        <v>134.8000030517578</v>
+      </c>
+      <c r="CX15" t="n">
+        <v>170209500</v>
+      </c>
+      <c r="CY15" t="inlineStr">
+        <is>
+          <t>2024-10-11</t>
+        </is>
+      </c>
+      <c r="CZ15" t="n">
+        <v>79.54000091552734</v>
+      </c>
+      <c r="DA15" t="n">
+        <v>80.72599792480469</v>
+      </c>
+      <c r="DB15" t="n">
+        <v>79.16000366210938</v>
+      </c>
+      <c r="DC15" t="n">
+        <v>80.51000213623047</v>
+      </c>
+      <c r="DD15" t="n">
+        <v>7744800</v>
+      </c>
+      <c r="DE15" t="inlineStr">
+        <is>
+          <t>2024-10-11</t>
+        </is>
+      </c>
+      <c r="DF15" t="n">
+        <v>504.7799987792969</v>
+      </c>
+      <c r="DG15" t="n">
+        <v>507.9800109863281</v>
+      </c>
+      <c r="DH15" t="n">
+        <v>494.8999938964844</v>
+      </c>
+      <c r="DI15" t="n">
+        <v>495.4200134277344</v>
+      </c>
+      <c r="DJ15" t="n">
+        <v>2992400</v>
+      </c>
+      <c r="DK15" t="inlineStr">
+        <is>
+          <t>2024-10-11</t>
+        </is>
+      </c>
+      <c r="DL15" t="n">
+        <v>734.9000244140625</v>
+      </c>
+      <c r="DM15" t="n">
+        <v>736</v>
+      </c>
+      <c r="DN15" t="n">
+        <v>721.219970703125</v>
+      </c>
+      <c r="DO15" t="n">
+        <v>722.7899780273438</v>
+      </c>
+      <c r="DP15" t="n">
+        <v>2299500</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -782,6 +6392,366 @@
       <c r="F16" t="n">
         <v>39882100</v>
       </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2024-10-14</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>228.6999969482422</v>
+      </c>
+      <c r="I16" t="n">
+        <v>231.7299957275391</v>
+      </c>
+      <c r="J16" t="n">
+        <v>228.6000061035156</v>
+      </c>
+      <c r="K16" t="n">
+        <v>231.3000030517578</v>
+      </c>
+      <c r="L16" t="n">
+        <v>39882100</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>2024-10-14</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
+        <v>417.7699890136719</v>
+      </c>
+      <c r="O16" t="n">
+        <v>424.0400085449219</v>
+      </c>
+      <c r="P16" t="n">
+        <v>417.5199890136719</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>419.1400146484375</v>
+      </c>
+      <c r="R16" t="n">
+        <v>16653100</v>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>2024-10-14</t>
+        </is>
+      </c>
+      <c r="T16" t="n">
+        <v>163.6399993896484</v>
+      </c>
+      <c r="U16" t="n">
+        <v>166.2299957275391</v>
+      </c>
+      <c r="V16" t="n">
+        <v>163.3999938964844</v>
+      </c>
+      <c r="W16" t="n">
+        <v>164.9600067138672</v>
+      </c>
+      <c r="X16" t="n">
+        <v>19016100</v>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>2024-10-14</t>
+        </is>
+      </c>
+      <c r="Z16" t="n">
+        <v>189.7799987792969</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>189.8300018310547</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>187.3600006103516</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>187.5399932861328</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>22614400</v>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>2024-10-14</t>
+        </is>
+      </c>
+      <c r="AL16" t="n">
+        <v>220.1300048828125</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>221.9100036621094</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>213.7400054931641</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>219.1600036621094</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>86291900</v>
+      </c>
+      <c r="AQ16" t="inlineStr">
+        <is>
+          <t>2024-10-14</t>
+        </is>
+      </c>
+      <c r="AR16" t="n">
+        <v>136.4700012207031</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>139.6000061035156</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>136.3000030517578</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>138.0700073242188</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>232347700</v>
+      </c>
+      <c r="AW16" t="inlineStr">
+        <is>
+          <t>2024-10-14</t>
+        </is>
+      </c>
+      <c r="AX16" t="n">
+        <v>80.33999633789062</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>80.98000335693359</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>79.81999969482422</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>80.66999816894531</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>5865400</v>
+      </c>
+      <c r="BC16" t="inlineStr">
+        <is>
+          <t>2024-10-14</t>
+        </is>
+      </c>
+      <c r="BD16" t="n">
+        <v>501.7999877929688</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>514.260009765625</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>500.4100036621094</v>
+      </c>
+      <c r="BG16" t="n">
+        <v>509.6499938964844</v>
+      </c>
+      <c r="BH16" t="n">
+        <v>3411500</v>
+      </c>
+      <c r="BI16" t="inlineStr">
+        <is>
+          <t>2024-10-14</t>
+        </is>
+      </c>
+      <c r="BJ16" t="n">
+        <v>725</v>
+      </c>
+      <c r="BK16" t="n">
+        <v>726.6199951171875</v>
+      </c>
+      <c r="BL16" t="n">
+        <v>711.3099975585938</v>
+      </c>
+      <c r="BM16" t="n">
+        <v>713</v>
+      </c>
+      <c r="BN16" t="n">
+        <v>2797100</v>
+      </c>
+      <c r="BO16" t="inlineStr">
+        <is>
+          <t>2024-10-14</t>
+        </is>
+      </c>
+      <c r="BP16" t="n">
+        <v>228.6999969482422</v>
+      </c>
+      <c r="BQ16" t="n">
+        <v>231.7299957275391</v>
+      </c>
+      <c r="BR16" t="n">
+        <v>228.6000061035156</v>
+      </c>
+      <c r="BS16" t="n">
+        <v>231.3000030517578</v>
+      </c>
+      <c r="BT16" t="n">
+        <v>39882100</v>
+      </c>
+      <c r="BU16" t="inlineStr">
+        <is>
+          <t>2024-10-14</t>
+        </is>
+      </c>
+      <c r="BV16" t="n">
+        <v>417.7699890136719</v>
+      </c>
+      <c r="BW16" t="n">
+        <v>424.0400085449219</v>
+      </c>
+      <c r="BX16" t="n">
+        <v>417.5199890136719</v>
+      </c>
+      <c r="BY16" t="n">
+        <v>419.1400146484375</v>
+      </c>
+      <c r="BZ16" t="n">
+        <v>16653100</v>
+      </c>
+      <c r="CA16" t="inlineStr">
+        <is>
+          <t>2024-10-14</t>
+        </is>
+      </c>
+      <c r="CB16" t="n">
+        <v>163.6399993896484</v>
+      </c>
+      <c r="CC16" t="n">
+        <v>166.2299957275391</v>
+      </c>
+      <c r="CD16" t="n">
+        <v>163.3999938964844</v>
+      </c>
+      <c r="CE16" t="n">
+        <v>164.9600067138672</v>
+      </c>
+      <c r="CF16" t="n">
+        <v>19016100</v>
+      </c>
+      <c r="CG16" t="inlineStr">
+        <is>
+          <t>2024-10-14</t>
+        </is>
+      </c>
+      <c r="CH16" t="n">
+        <v>189.7799987792969</v>
+      </c>
+      <c r="CI16" t="n">
+        <v>189.8300018310547</v>
+      </c>
+      <c r="CJ16" t="n">
+        <v>187.3600006103516</v>
+      </c>
+      <c r="CK16" t="n">
+        <v>187.5399932861328</v>
+      </c>
+      <c r="CL16" t="n">
+        <v>22614400</v>
+      </c>
+      <c r="CM16" t="inlineStr">
+        <is>
+          <t>2024-10-14</t>
+        </is>
+      </c>
+      <c r="CN16" t="n">
+        <v>220.1300048828125</v>
+      </c>
+      <c r="CO16" t="n">
+        <v>221.9100036621094</v>
+      </c>
+      <c r="CP16" t="n">
+        <v>213.7400054931641</v>
+      </c>
+      <c r="CQ16" t="n">
+        <v>219.1600036621094</v>
+      </c>
+      <c r="CR16" t="n">
+        <v>86291900</v>
+      </c>
+      <c r="CS16" t="inlineStr">
+        <is>
+          <t>2024-10-14</t>
+        </is>
+      </c>
+      <c r="CT16" t="n">
+        <v>136.4700012207031</v>
+      </c>
+      <c r="CU16" t="n">
+        <v>139.6000061035156</v>
+      </c>
+      <c r="CV16" t="n">
+        <v>136.3000030517578</v>
+      </c>
+      <c r="CW16" t="n">
+        <v>138.0700073242188</v>
+      </c>
+      <c r="CX16" t="n">
+        <v>232347700</v>
+      </c>
+      <c r="CY16" t="inlineStr">
+        <is>
+          <t>2024-10-14</t>
+        </is>
+      </c>
+      <c r="CZ16" t="n">
+        <v>80.33999633789062</v>
+      </c>
+      <c r="DA16" t="n">
+        <v>80.98000335693359</v>
+      </c>
+      <c r="DB16" t="n">
+        <v>79.81999969482422</v>
+      </c>
+      <c r="DC16" t="n">
+        <v>80.66999816894531</v>
+      </c>
+      <c r="DD16" t="n">
+        <v>5865400</v>
+      </c>
+      <c r="DE16" t="inlineStr">
+        <is>
+          <t>2024-10-14</t>
+        </is>
+      </c>
+      <c r="DF16" t="n">
+        <v>501.7999877929688</v>
+      </c>
+      <c r="DG16" t="n">
+        <v>514.260009765625</v>
+      </c>
+      <c r="DH16" t="n">
+        <v>500.4100036621094</v>
+      </c>
+      <c r="DI16" t="n">
+        <v>509.6499938964844</v>
+      </c>
+      <c r="DJ16" t="n">
+        <v>3411500</v>
+      </c>
+      <c r="DK16" t="inlineStr">
+        <is>
+          <t>2024-10-14</t>
+        </is>
+      </c>
+      <c r="DL16" t="n">
+        <v>725</v>
+      </c>
+      <c r="DM16" t="n">
+        <v>726.6199951171875</v>
+      </c>
+      <c r="DN16" t="n">
+        <v>711.3099975585938</v>
+      </c>
+      <c r="DO16" t="n">
+        <v>713</v>
+      </c>
+      <c r="DP16" t="n">
+        <v>2797100</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -804,6 +6774,366 @@
       <c r="F17" t="n">
         <v>64751400</v>
       </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2024-10-15</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>233.6100006103516</v>
+      </c>
+      <c r="I17" t="n">
+        <v>237.4900054931641</v>
+      </c>
+      <c r="J17" t="n">
+        <v>232.3699951171875</v>
+      </c>
+      <c r="K17" t="n">
+        <v>233.8500061035156</v>
+      </c>
+      <c r="L17" t="n">
+        <v>64751400</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>2024-10-15</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
+        <v>422.1799926757812</v>
+      </c>
+      <c r="O17" t="n">
+        <v>422.4800109863281</v>
+      </c>
+      <c r="P17" t="n">
+        <v>415.260009765625</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>418.739990234375</v>
+      </c>
+      <c r="R17" t="n">
+        <v>18900200</v>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>2024-10-15</t>
+        </is>
+      </c>
+      <c r="T17" t="n">
+        <v>165.7899932861328</v>
+      </c>
+      <c r="U17" t="n">
+        <v>167.6799926757812</v>
+      </c>
+      <c r="V17" t="n">
+        <v>164.6300048828125</v>
+      </c>
+      <c r="W17" t="n">
+        <v>165.4600067138672</v>
+      </c>
+      <c r="X17" t="n">
+        <v>20247200</v>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>2024-10-15</t>
+        </is>
+      </c>
+      <c r="Z17" t="n">
+        <v>187.6300048828125</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>188.4100036621094</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>184.5800018310547</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>187.6900024414062</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>32178900</v>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>2024-10-15</t>
+        </is>
+      </c>
+      <c r="AL17" t="n">
+        <v>220.0099945068359</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>224.2599945068359</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>217.1199951171875</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>219.5700073242188</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>62988800</v>
+      </c>
+      <c r="AQ17" t="inlineStr">
+        <is>
+          <t>2024-10-15</t>
+        </is>
+      </c>
+      <c r="AR17" t="n">
+        <v>137.8699951171875</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>138.5700073242188</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>128.7400054931641</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>131.6000061035156</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>377831000</v>
+      </c>
+      <c r="AW17" t="inlineStr">
+        <is>
+          <t>2024-10-15</t>
+        </is>
+      </c>
+      <c r="AX17" t="n">
+        <v>80.15000152587891</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>81.05999755859375</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>78.65000152587891</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>79.55000305175781</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>7291600</v>
+      </c>
+      <c r="BC17" t="inlineStr">
+        <is>
+          <t>2024-10-15</t>
+        </is>
+      </c>
+      <c r="BD17" t="n">
+        <v>513.8200073242188</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>517.77001953125</v>
+      </c>
+      <c r="BF17" t="n">
+        <v>506.7999877929688</v>
+      </c>
+      <c r="BG17" t="n">
+        <v>508.0299987792969</v>
+      </c>
+      <c r="BH17" t="n">
+        <v>3605700</v>
+      </c>
+      <c r="BI17" t="inlineStr">
+        <is>
+          <t>2024-10-15</t>
+        </is>
+      </c>
+      <c r="BJ17" t="n">
+        <v>712.510009765625</v>
+      </c>
+      <c r="BK17" t="n">
+        <v>713.4000244140625</v>
+      </c>
+      <c r="BL17" t="n">
+        <v>699.780029296875</v>
+      </c>
+      <c r="BM17" t="n">
+        <v>705.97998046875</v>
+      </c>
+      <c r="BN17" t="n">
+        <v>2932800</v>
+      </c>
+      <c r="BO17" t="inlineStr">
+        <is>
+          <t>2024-10-15</t>
+        </is>
+      </c>
+      <c r="BP17" t="n">
+        <v>233.6100006103516</v>
+      </c>
+      <c r="BQ17" t="n">
+        <v>237.4900054931641</v>
+      </c>
+      <c r="BR17" t="n">
+        <v>232.3699951171875</v>
+      </c>
+      <c r="BS17" t="n">
+        <v>233.8500061035156</v>
+      </c>
+      <c r="BT17" t="n">
+        <v>64751400</v>
+      </c>
+      <c r="BU17" t="inlineStr">
+        <is>
+          <t>2024-10-15</t>
+        </is>
+      </c>
+      <c r="BV17" t="n">
+        <v>422.1799926757812</v>
+      </c>
+      <c r="BW17" t="n">
+        <v>422.4800109863281</v>
+      </c>
+      <c r="BX17" t="n">
+        <v>415.260009765625</v>
+      </c>
+      <c r="BY17" t="n">
+        <v>418.739990234375</v>
+      </c>
+      <c r="BZ17" t="n">
+        <v>18900200</v>
+      </c>
+      <c r="CA17" t="inlineStr">
+        <is>
+          <t>2024-10-15</t>
+        </is>
+      </c>
+      <c r="CB17" t="n">
+        <v>165.7899932861328</v>
+      </c>
+      <c r="CC17" t="n">
+        <v>167.6799926757812</v>
+      </c>
+      <c r="CD17" t="n">
+        <v>164.6300048828125</v>
+      </c>
+      <c r="CE17" t="n">
+        <v>165.4600067138672</v>
+      </c>
+      <c r="CF17" t="n">
+        <v>20247200</v>
+      </c>
+      <c r="CG17" t="inlineStr">
+        <is>
+          <t>2024-10-15</t>
+        </is>
+      </c>
+      <c r="CH17" t="n">
+        <v>187.6300048828125</v>
+      </c>
+      <c r="CI17" t="n">
+        <v>188.4100036621094</v>
+      </c>
+      <c r="CJ17" t="n">
+        <v>184.5800018310547</v>
+      </c>
+      <c r="CK17" t="n">
+        <v>187.6900024414062</v>
+      </c>
+      <c r="CL17" t="n">
+        <v>32178900</v>
+      </c>
+      <c r="CM17" t="inlineStr">
+        <is>
+          <t>2024-10-15</t>
+        </is>
+      </c>
+      <c r="CN17" t="n">
+        <v>220.0099945068359</v>
+      </c>
+      <c r="CO17" t="n">
+        <v>224.2599945068359</v>
+      </c>
+      <c r="CP17" t="n">
+        <v>217.1199951171875</v>
+      </c>
+      <c r="CQ17" t="n">
+        <v>219.5700073242188</v>
+      </c>
+      <c r="CR17" t="n">
+        <v>62988800</v>
+      </c>
+      <c r="CS17" t="inlineStr">
+        <is>
+          <t>2024-10-15</t>
+        </is>
+      </c>
+      <c r="CT17" t="n">
+        <v>137.8699951171875</v>
+      </c>
+      <c r="CU17" t="n">
+        <v>138.5700073242188</v>
+      </c>
+      <c r="CV17" t="n">
+        <v>128.7400054931641</v>
+      </c>
+      <c r="CW17" t="n">
+        <v>131.6000061035156</v>
+      </c>
+      <c r="CX17" t="n">
+        <v>377831000</v>
+      </c>
+      <c r="CY17" t="inlineStr">
+        <is>
+          <t>2024-10-15</t>
+        </is>
+      </c>
+      <c r="CZ17" t="n">
+        <v>80.15000152587891</v>
+      </c>
+      <c r="DA17" t="n">
+        <v>81.05999755859375</v>
+      </c>
+      <c r="DB17" t="n">
+        <v>78.65000152587891</v>
+      </c>
+      <c r="DC17" t="n">
+        <v>79.55000305175781</v>
+      </c>
+      <c r="DD17" t="n">
+        <v>7291600</v>
+      </c>
+      <c r="DE17" t="inlineStr">
+        <is>
+          <t>2024-10-15</t>
+        </is>
+      </c>
+      <c r="DF17" t="n">
+        <v>513.8200073242188</v>
+      </c>
+      <c r="DG17" t="n">
+        <v>517.77001953125</v>
+      </c>
+      <c r="DH17" t="n">
+        <v>506.7999877929688</v>
+      </c>
+      <c r="DI17" t="n">
+        <v>508.0299987792969</v>
+      </c>
+      <c r="DJ17" t="n">
+        <v>3605700</v>
+      </c>
+      <c r="DK17" t="inlineStr">
+        <is>
+          <t>2024-10-15</t>
+        </is>
+      </c>
+      <c r="DL17" t="n">
+        <v>712.510009765625</v>
+      </c>
+      <c r="DM17" t="n">
+        <v>713.4000244140625</v>
+      </c>
+      <c r="DN17" t="n">
+        <v>699.780029296875</v>
+      </c>
+      <c r="DO17" t="n">
+        <v>705.97998046875</v>
+      </c>
+      <c r="DP17" t="n">
+        <v>2932800</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -826,6 +7156,366 @@
       <c r="F18" t="n">
         <v>34082200</v>
       </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2024-10-16</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>231.6000061035156</v>
+      </c>
+      <c r="I18" t="n">
+        <v>232.1199951171875</v>
+      </c>
+      <c r="J18" t="n">
+        <v>229.8399963378906</v>
+      </c>
+      <c r="K18" t="n">
+        <v>231.7799987792969</v>
+      </c>
+      <c r="L18" t="n">
+        <v>34082200</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>2024-10-16</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
+        <v>415.1700134277344</v>
+      </c>
+      <c r="O18" t="n">
+        <v>416.3599853515625</v>
+      </c>
+      <c r="P18" t="n">
+        <v>410.4800109863281</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>416.1199951171875</v>
+      </c>
+      <c r="R18" t="n">
+        <v>15508900</v>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>2024-10-16</t>
+        </is>
+      </c>
+      <c r="T18" t="n">
+        <v>164.5299987792969</v>
+      </c>
+      <c r="U18" t="n">
+        <v>165.8000030517578</v>
+      </c>
+      <c r="V18" t="n">
+        <v>163.7400054931641</v>
+      </c>
+      <c r="W18" t="n">
+        <v>165.1600036621094</v>
+      </c>
+      <c r="X18" t="n">
+        <v>16406000</v>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>2024-10-16</t>
+        </is>
+      </c>
+      <c r="Z18" t="n">
+        <v>187.0500030517578</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>187.7799987792969</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>185.6100006103516</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>186.8899993896484</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>23456800</v>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>2024-10-16</t>
+        </is>
+      </c>
+      <c r="AL18" t="n">
+        <v>221.3999938964844</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>222.8200073242188</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>218.9299926757812</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>221.3300018310547</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>49632800</v>
+      </c>
+      <c r="AQ18" t="inlineStr">
+        <is>
+          <t>2024-10-16</t>
+        </is>
+      </c>
+      <c r="AR18" t="n">
+        <v>133.9799957275391</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>136.6199951171875</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>131.5800018310547</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>135.7200012207031</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>264879700</v>
+      </c>
+      <c r="AW18" t="inlineStr">
+        <is>
+          <t>2024-10-16</t>
+        </is>
+      </c>
+      <c r="AX18" t="n">
+        <v>79.80999755859375</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>80.84999847412109</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>79.44999694824219</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>80.81999969482422</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>5434800</v>
+      </c>
+      <c r="BC18" t="inlineStr">
+        <is>
+          <t>2024-10-16</t>
+        </is>
+      </c>
+      <c r="BD18" t="n">
+        <v>506.3900146484375</v>
+      </c>
+      <c r="BE18" t="n">
+        <v>506.8399963378906</v>
+      </c>
+      <c r="BF18" t="n">
+        <v>500.25</v>
+      </c>
+      <c r="BG18" t="n">
+        <v>502.5400085449219</v>
+      </c>
+      <c r="BH18" t="n">
+        <v>1859100</v>
+      </c>
+      <c r="BI18" t="inlineStr">
+        <is>
+          <t>2024-10-16</t>
+        </is>
+      </c>
+      <c r="BJ18" t="n">
+        <v>703.4299926757812</v>
+      </c>
+      <c r="BK18" t="n">
+        <v>705.5900268554688</v>
+      </c>
+      <c r="BL18" t="n">
+        <v>697.8200073242188</v>
+      </c>
+      <c r="BM18" t="n">
+        <v>702</v>
+      </c>
+      <c r="BN18" t="n">
+        <v>2494300</v>
+      </c>
+      <c r="BO18" t="inlineStr">
+        <is>
+          <t>2024-10-16</t>
+        </is>
+      </c>
+      <c r="BP18" t="n">
+        <v>231.6000061035156</v>
+      </c>
+      <c r="BQ18" t="n">
+        <v>232.1199951171875</v>
+      </c>
+      <c r="BR18" t="n">
+        <v>229.8399963378906</v>
+      </c>
+      <c r="BS18" t="n">
+        <v>231.7799987792969</v>
+      </c>
+      <c r="BT18" t="n">
+        <v>34082200</v>
+      </c>
+      <c r="BU18" t="inlineStr">
+        <is>
+          <t>2024-10-16</t>
+        </is>
+      </c>
+      <c r="BV18" t="n">
+        <v>415.1700134277344</v>
+      </c>
+      <c r="BW18" t="n">
+        <v>416.3599853515625</v>
+      </c>
+      <c r="BX18" t="n">
+        <v>410.4800109863281</v>
+      </c>
+      <c r="BY18" t="n">
+        <v>416.1199951171875</v>
+      </c>
+      <c r="BZ18" t="n">
+        <v>15508900</v>
+      </c>
+      <c r="CA18" t="inlineStr">
+        <is>
+          <t>2024-10-16</t>
+        </is>
+      </c>
+      <c r="CB18" t="n">
+        <v>164.5299987792969</v>
+      </c>
+      <c r="CC18" t="n">
+        <v>165.8000030517578</v>
+      </c>
+      <c r="CD18" t="n">
+        <v>163.7400054931641</v>
+      </c>
+      <c r="CE18" t="n">
+        <v>165.1600036621094</v>
+      </c>
+      <c r="CF18" t="n">
+        <v>16406000</v>
+      </c>
+      <c r="CG18" t="inlineStr">
+        <is>
+          <t>2024-10-16</t>
+        </is>
+      </c>
+      <c r="CH18" t="n">
+        <v>187.0500030517578</v>
+      </c>
+      <c r="CI18" t="n">
+        <v>187.7799987792969</v>
+      </c>
+      <c r="CJ18" t="n">
+        <v>185.6100006103516</v>
+      </c>
+      <c r="CK18" t="n">
+        <v>186.8899993896484</v>
+      </c>
+      <c r="CL18" t="n">
+        <v>23456800</v>
+      </c>
+      <c r="CM18" t="inlineStr">
+        <is>
+          <t>2024-10-16</t>
+        </is>
+      </c>
+      <c r="CN18" t="n">
+        <v>221.3999938964844</v>
+      </c>
+      <c r="CO18" t="n">
+        <v>222.8200073242188</v>
+      </c>
+      <c r="CP18" t="n">
+        <v>218.9299926757812</v>
+      </c>
+      <c r="CQ18" t="n">
+        <v>221.3300018310547</v>
+      </c>
+      <c r="CR18" t="n">
+        <v>49632800</v>
+      </c>
+      <c r="CS18" t="inlineStr">
+        <is>
+          <t>2024-10-16</t>
+        </is>
+      </c>
+      <c r="CT18" t="n">
+        <v>133.9799957275391</v>
+      </c>
+      <c r="CU18" t="n">
+        <v>136.6199951171875</v>
+      </c>
+      <c r="CV18" t="n">
+        <v>131.5800018310547</v>
+      </c>
+      <c r="CW18" t="n">
+        <v>135.7200012207031</v>
+      </c>
+      <c r="CX18" t="n">
+        <v>264879700</v>
+      </c>
+      <c r="CY18" t="inlineStr">
+        <is>
+          <t>2024-10-16</t>
+        </is>
+      </c>
+      <c r="CZ18" t="n">
+        <v>79.80999755859375</v>
+      </c>
+      <c r="DA18" t="n">
+        <v>80.84999847412109</v>
+      </c>
+      <c r="DB18" t="n">
+        <v>79.44999694824219</v>
+      </c>
+      <c r="DC18" t="n">
+        <v>80.81999969482422</v>
+      </c>
+      <c r="DD18" t="n">
+        <v>5434800</v>
+      </c>
+      <c r="DE18" t="inlineStr">
+        <is>
+          <t>2024-10-16</t>
+        </is>
+      </c>
+      <c r="DF18" t="n">
+        <v>506.3900146484375</v>
+      </c>
+      <c r="DG18" t="n">
+        <v>506.8399963378906</v>
+      </c>
+      <c r="DH18" t="n">
+        <v>500.25</v>
+      </c>
+      <c r="DI18" t="n">
+        <v>502.5400085449219</v>
+      </c>
+      <c r="DJ18" t="n">
+        <v>1859100</v>
+      </c>
+      <c r="DK18" t="inlineStr">
+        <is>
+          <t>2024-10-16</t>
+        </is>
+      </c>
+      <c r="DL18" t="n">
+        <v>703.4299926757812</v>
+      </c>
+      <c r="DM18" t="n">
+        <v>705.5900268554688</v>
+      </c>
+      <c r="DN18" t="n">
+        <v>697.8200073242188</v>
+      </c>
+      <c r="DO18" t="n">
+        <v>702</v>
+      </c>
+      <c r="DP18" t="n">
+        <v>2494300</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -848,6 +7538,366 @@
       <c r="F19" t="n">
         <v>32993800</v>
       </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2024-10-17</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>233.4299926757812</v>
+      </c>
+      <c r="I19" t="n">
+        <v>233.8500061035156</v>
+      </c>
+      <c r="J19" t="n">
+        <v>230.5200042724609</v>
+      </c>
+      <c r="K19" t="n">
+        <v>232.1499938964844</v>
+      </c>
+      <c r="L19" t="n">
+        <v>32993800</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>2024-10-17</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
+        <v>422.3599853515625</v>
+      </c>
+      <c r="O19" t="n">
+        <v>422.5</v>
+      </c>
+      <c r="P19" t="n">
+        <v>415.5899963378906</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>416.7200012207031</v>
+      </c>
+      <c r="R19" t="n">
+        <v>14820000</v>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>2024-10-17</t>
+        </is>
+      </c>
+      <c r="T19" t="n">
+        <v>165.7299957275391</v>
+      </c>
+      <c r="U19" t="n">
+        <v>166.3699951171875</v>
+      </c>
+      <c r="V19" t="n">
+        <v>162.7599945068359</v>
+      </c>
+      <c r="W19" t="n">
+        <v>162.9299926757812</v>
+      </c>
+      <c r="X19" t="n">
+        <v>21453400</v>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>2024-10-17</t>
+        </is>
+      </c>
+      <c r="Z19" t="n">
+        <v>188.2200012207031</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>188.9400024414062</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>186</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>187.5299987792969</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>25039400</v>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>2024-10-17</t>
+        </is>
+      </c>
+      <c r="AL19" t="n">
+        <v>221.5899963378906</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>222.0800018310547</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>217.8999938964844</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>220.8899993896484</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>50791800</v>
+      </c>
+      <c r="AQ19" t="inlineStr">
+        <is>
+          <t>2024-10-17</t>
+        </is>
+      </c>
+      <c r="AR19" t="n">
+        <v>139.3399963378906</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>140.8899993896484</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>136.8699951171875</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>136.9299926757812</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>306435900</v>
+      </c>
+      <c r="AW19" t="inlineStr">
+        <is>
+          <t>2024-10-17</t>
+        </is>
+      </c>
+      <c r="AX19" t="n">
+        <v>80.75</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>80.90000152587891</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>79.22499847412109</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>79.81999969482422</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>8654000</v>
+      </c>
+      <c r="BC19" t="inlineStr">
+        <is>
+          <t>2024-10-17</t>
+        </is>
+      </c>
+      <c r="BD19" t="n">
+        <v>506.510009765625</v>
+      </c>
+      <c r="BE19" t="n">
+        <v>507.5</v>
+      </c>
+      <c r="BF19" t="n">
+        <v>495.2300109863281</v>
+      </c>
+      <c r="BG19" t="n">
+        <v>496.8299865722656</v>
+      </c>
+      <c r="BH19" t="n">
+        <v>2769200</v>
+      </c>
+      <c r="BI19" t="inlineStr">
+        <is>
+          <t>2024-10-17</t>
+        </is>
+      </c>
+      <c r="BJ19" t="n">
+        <v>704.3499755859375</v>
+      </c>
+      <c r="BK19" t="n">
+        <v>704.4099731445312</v>
+      </c>
+      <c r="BL19" t="n">
+        <v>677.8800048828125</v>
+      </c>
+      <c r="BM19" t="n">
+        <v>687.6500244140625</v>
+      </c>
+      <c r="BN19" t="n">
+        <v>8926700</v>
+      </c>
+      <c r="BO19" t="inlineStr">
+        <is>
+          <t>2024-10-17</t>
+        </is>
+      </c>
+      <c r="BP19" t="n">
+        <v>233.4299926757812</v>
+      </c>
+      <c r="BQ19" t="n">
+        <v>233.8500061035156</v>
+      </c>
+      <c r="BR19" t="n">
+        <v>230.5200042724609</v>
+      </c>
+      <c r="BS19" t="n">
+        <v>232.1499938964844</v>
+      </c>
+      <c r="BT19" t="n">
+        <v>32993800</v>
+      </c>
+      <c r="BU19" t="inlineStr">
+        <is>
+          <t>2024-10-17</t>
+        </is>
+      </c>
+      <c r="BV19" t="n">
+        <v>422.3599853515625</v>
+      </c>
+      <c r="BW19" t="n">
+        <v>422.5</v>
+      </c>
+      <c r="BX19" t="n">
+        <v>415.5899963378906</v>
+      </c>
+      <c r="BY19" t="n">
+        <v>416.7200012207031</v>
+      </c>
+      <c r="BZ19" t="n">
+        <v>14820000</v>
+      </c>
+      <c r="CA19" t="inlineStr">
+        <is>
+          <t>2024-10-17</t>
+        </is>
+      </c>
+      <c r="CB19" t="n">
+        <v>165.7299957275391</v>
+      </c>
+      <c r="CC19" t="n">
+        <v>166.3699951171875</v>
+      </c>
+      <c r="CD19" t="n">
+        <v>162.7599945068359</v>
+      </c>
+      <c r="CE19" t="n">
+        <v>162.9299926757812</v>
+      </c>
+      <c r="CF19" t="n">
+        <v>21453400</v>
+      </c>
+      <c r="CG19" t="inlineStr">
+        <is>
+          <t>2024-10-17</t>
+        </is>
+      </c>
+      <c r="CH19" t="n">
+        <v>188.2200012207031</v>
+      </c>
+      <c r="CI19" t="n">
+        <v>188.9400024414062</v>
+      </c>
+      <c r="CJ19" t="n">
+        <v>186</v>
+      </c>
+      <c r="CK19" t="n">
+        <v>187.5299987792969</v>
+      </c>
+      <c r="CL19" t="n">
+        <v>25039400</v>
+      </c>
+      <c r="CM19" t="inlineStr">
+        <is>
+          <t>2024-10-17</t>
+        </is>
+      </c>
+      <c r="CN19" t="n">
+        <v>221.5899963378906</v>
+      </c>
+      <c r="CO19" t="n">
+        <v>222.0800018310547</v>
+      </c>
+      <c r="CP19" t="n">
+        <v>217.8999938964844</v>
+      </c>
+      <c r="CQ19" t="n">
+        <v>220.8899993896484</v>
+      </c>
+      <c r="CR19" t="n">
+        <v>50791800</v>
+      </c>
+      <c r="CS19" t="inlineStr">
+        <is>
+          <t>2024-10-17</t>
+        </is>
+      </c>
+      <c r="CT19" t="n">
+        <v>139.3399963378906</v>
+      </c>
+      <c r="CU19" t="n">
+        <v>140.8899993896484</v>
+      </c>
+      <c r="CV19" t="n">
+        <v>136.8699951171875</v>
+      </c>
+      <c r="CW19" t="n">
+        <v>136.9299926757812</v>
+      </c>
+      <c r="CX19" t="n">
+        <v>306435900</v>
+      </c>
+      <c r="CY19" t="inlineStr">
+        <is>
+          <t>2024-10-17</t>
+        </is>
+      </c>
+      <c r="CZ19" t="n">
+        <v>80.75</v>
+      </c>
+      <c r="DA19" t="n">
+        <v>80.90000152587891</v>
+      </c>
+      <c r="DB19" t="n">
+        <v>79.22499847412109</v>
+      </c>
+      <c r="DC19" t="n">
+        <v>79.81999969482422</v>
+      </c>
+      <c r="DD19" t="n">
+        <v>8654000</v>
+      </c>
+      <c r="DE19" t="inlineStr">
+        <is>
+          <t>2024-10-17</t>
+        </is>
+      </c>
+      <c r="DF19" t="n">
+        <v>506.510009765625</v>
+      </c>
+      <c r="DG19" t="n">
+        <v>507.5</v>
+      </c>
+      <c r="DH19" t="n">
+        <v>495.2300109863281</v>
+      </c>
+      <c r="DI19" t="n">
+        <v>496.8299865722656</v>
+      </c>
+      <c r="DJ19" t="n">
+        <v>2769200</v>
+      </c>
+      <c r="DK19" t="inlineStr">
+        <is>
+          <t>2024-10-17</t>
+        </is>
+      </c>
+      <c r="DL19" t="n">
+        <v>704.3499755859375</v>
+      </c>
+      <c r="DM19" t="n">
+        <v>704.4099731445312</v>
+      </c>
+      <c r="DN19" t="n">
+        <v>677.8800048828125</v>
+      </c>
+      <c r="DO19" t="n">
+        <v>687.6500244140625</v>
+      </c>
+      <c r="DP19" t="n">
+        <v>8926700</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -870,6 +7920,366 @@
       <c r="F20" t="n">
         <v>46431500</v>
       </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2024-10-18</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>236.1799926757812</v>
+      </c>
+      <c r="I20" t="n">
+        <v>236.1799926757812</v>
+      </c>
+      <c r="J20" t="n">
+        <v>234.0099945068359</v>
+      </c>
+      <c r="K20" t="n">
+        <v>235</v>
+      </c>
+      <c r="L20" t="n">
+        <v>46431500</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>2024-10-18</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
+        <v>417.1400146484375</v>
+      </c>
+      <c r="O20" t="n">
+        <v>419.6499938964844</v>
+      </c>
+      <c r="P20" t="n">
+        <v>416.260009765625</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>418.1600036621094</v>
+      </c>
+      <c r="R20" t="n">
+        <v>17145300</v>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>2024-10-18</t>
+        </is>
+      </c>
+      <c r="T20" t="n">
+        <v>163.1900024414062</v>
+      </c>
+      <c r="U20" t="n">
+        <v>164.7100067138672</v>
+      </c>
+      <c r="V20" t="n">
+        <v>163.0800018310547</v>
+      </c>
+      <c r="W20" t="n">
+        <v>163.4199981689453</v>
+      </c>
+      <c r="X20" t="n">
+        <v>19757700</v>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>2024-10-18</t>
+        </is>
+      </c>
+      <c r="Z20" t="n">
+        <v>187.1499938964844</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>190.7400054931641</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>186.2799987792969</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>188.9900054931641</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>37417700</v>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>2024-10-18</t>
+        </is>
+      </c>
+      <c r="AL20" t="n">
+        <v>220.7100067138672</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>222.2799987792969</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>219.2299957275391</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>220.6999969482422</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>49611900</v>
+      </c>
+      <c r="AQ20" t="inlineStr">
+        <is>
+          <t>2024-10-18</t>
+        </is>
+      </c>
+      <c r="AR20" t="n">
+        <v>138.6699981689453</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>138.8999938964844</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>137.2799987792969</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>138</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>176090200</v>
+      </c>
+      <c r="AW20" t="inlineStr">
+        <is>
+          <t>2024-10-18</t>
+        </is>
+      </c>
+      <c r="AX20" t="n">
+        <v>79.5</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>80.97000122070312</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>78.94000244140625</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>80.94000244140625</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>8844300</v>
+      </c>
+      <c r="BC20" t="inlineStr">
+        <is>
+          <t>2024-10-18</t>
+        </is>
+      </c>
+      <c r="BD20" t="n">
+        <v>491.2900085449219</v>
+      </c>
+      <c r="BE20" t="n">
+        <v>499</v>
+      </c>
+      <c r="BF20" t="n">
+        <v>491.0499877929688</v>
+      </c>
+      <c r="BG20" t="n">
+        <v>494.8999938964844</v>
+      </c>
+      <c r="BH20" t="n">
+        <v>2011100</v>
+      </c>
+      <c r="BI20" t="inlineStr">
+        <is>
+          <t>2024-10-18</t>
+        </is>
+      </c>
+      <c r="BJ20" t="n">
+        <v>737.6400146484375</v>
+      </c>
+      <c r="BK20" t="n">
+        <v>766.280029296875</v>
+      </c>
+      <c r="BL20" t="n">
+        <v>736.22998046875</v>
+      </c>
+      <c r="BM20" t="n">
+        <v>763.8900146484375</v>
+      </c>
+      <c r="BN20" t="n">
+        <v>15974100</v>
+      </c>
+      <c r="BO20" t="inlineStr">
+        <is>
+          <t>2024-10-18</t>
+        </is>
+      </c>
+      <c r="BP20" t="n">
+        <v>236.1799926757812</v>
+      </c>
+      <c r="BQ20" t="n">
+        <v>236.1799926757812</v>
+      </c>
+      <c r="BR20" t="n">
+        <v>234.0099945068359</v>
+      </c>
+      <c r="BS20" t="n">
+        <v>235</v>
+      </c>
+      <c r="BT20" t="n">
+        <v>46431500</v>
+      </c>
+      <c r="BU20" t="inlineStr">
+        <is>
+          <t>2024-10-18</t>
+        </is>
+      </c>
+      <c r="BV20" t="n">
+        <v>417.1400146484375</v>
+      </c>
+      <c r="BW20" t="n">
+        <v>419.6499938964844</v>
+      </c>
+      <c r="BX20" t="n">
+        <v>416.260009765625</v>
+      </c>
+      <c r="BY20" t="n">
+        <v>418.1600036621094</v>
+      </c>
+      <c r="BZ20" t="n">
+        <v>17145300</v>
+      </c>
+      <c r="CA20" t="inlineStr">
+        <is>
+          <t>2024-10-18</t>
+        </is>
+      </c>
+      <c r="CB20" t="n">
+        <v>163.1900024414062</v>
+      </c>
+      <c r="CC20" t="n">
+        <v>164.7100067138672</v>
+      </c>
+      <c r="CD20" t="n">
+        <v>163.0800018310547</v>
+      </c>
+      <c r="CE20" t="n">
+        <v>163.4199981689453</v>
+      </c>
+      <c r="CF20" t="n">
+        <v>19757700</v>
+      </c>
+      <c r="CG20" t="inlineStr">
+        <is>
+          <t>2024-10-18</t>
+        </is>
+      </c>
+      <c r="CH20" t="n">
+        <v>187.1499938964844</v>
+      </c>
+      <c r="CI20" t="n">
+        <v>190.7400054931641</v>
+      </c>
+      <c r="CJ20" t="n">
+        <v>186.2799987792969</v>
+      </c>
+      <c r="CK20" t="n">
+        <v>188.9900054931641</v>
+      </c>
+      <c r="CL20" t="n">
+        <v>37417700</v>
+      </c>
+      <c r="CM20" t="inlineStr">
+        <is>
+          <t>2024-10-18</t>
+        </is>
+      </c>
+      <c r="CN20" t="n">
+        <v>220.7100067138672</v>
+      </c>
+      <c r="CO20" t="n">
+        <v>222.2799987792969</v>
+      </c>
+      <c r="CP20" t="n">
+        <v>219.2299957275391</v>
+      </c>
+      <c r="CQ20" t="n">
+        <v>220.6999969482422</v>
+      </c>
+      <c r="CR20" t="n">
+        <v>49611900</v>
+      </c>
+      <c r="CS20" t="inlineStr">
+        <is>
+          <t>2024-10-18</t>
+        </is>
+      </c>
+      <c r="CT20" t="n">
+        <v>138.6699981689453</v>
+      </c>
+      <c r="CU20" t="n">
+        <v>138.8999938964844</v>
+      </c>
+      <c r="CV20" t="n">
+        <v>137.2799987792969</v>
+      </c>
+      <c r="CW20" t="n">
+        <v>138</v>
+      </c>
+      <c r="CX20" t="n">
+        <v>176090200</v>
+      </c>
+      <c r="CY20" t="inlineStr">
+        <is>
+          <t>2024-10-18</t>
+        </is>
+      </c>
+      <c r="CZ20" t="n">
+        <v>79.5</v>
+      </c>
+      <c r="DA20" t="n">
+        <v>80.97000122070312</v>
+      </c>
+      <c r="DB20" t="n">
+        <v>78.94000244140625</v>
+      </c>
+      <c r="DC20" t="n">
+        <v>80.94000244140625</v>
+      </c>
+      <c r="DD20" t="n">
+        <v>8844300</v>
+      </c>
+      <c r="DE20" t="inlineStr">
+        <is>
+          <t>2024-10-18</t>
+        </is>
+      </c>
+      <c r="DF20" t="n">
+        <v>491.2900085449219</v>
+      </c>
+      <c r="DG20" t="n">
+        <v>499</v>
+      </c>
+      <c r="DH20" t="n">
+        <v>491.0499877929688</v>
+      </c>
+      <c r="DI20" t="n">
+        <v>494.8999938964844</v>
+      </c>
+      <c r="DJ20" t="n">
+        <v>2011100</v>
+      </c>
+      <c r="DK20" t="inlineStr">
+        <is>
+          <t>2024-10-18</t>
+        </is>
+      </c>
+      <c r="DL20" t="n">
+        <v>737.6400146484375</v>
+      </c>
+      <c r="DM20" t="n">
+        <v>766.280029296875</v>
+      </c>
+      <c r="DN20" t="n">
+        <v>736.22998046875</v>
+      </c>
+      <c r="DO20" t="n">
+        <v>763.8900146484375</v>
+      </c>
+      <c r="DP20" t="n">
+        <v>15974100</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -892,6 +8302,366 @@
       <c r="F21" t="n">
         <v>36254500</v>
       </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2024-10-21</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>234.4499969482422</v>
+      </c>
+      <c r="I21" t="n">
+        <v>236.8500061035156</v>
+      </c>
+      <c r="J21" t="n">
+        <v>234.4499969482422</v>
+      </c>
+      <c r="K21" t="n">
+        <v>236.4799957275391</v>
+      </c>
+      <c r="L21" t="n">
+        <v>36254500</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>2024-10-21</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
+        <v>416.1199951171875</v>
+      </c>
+      <c r="O21" t="n">
+        <v>418.9599914550781</v>
+      </c>
+      <c r="P21" t="n">
+        <v>413.75</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>418.7799987792969</v>
+      </c>
+      <c r="R21" t="n">
+        <v>14206100</v>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>2024-10-21</t>
+        </is>
+      </c>
+      <c r="T21" t="n">
+        <v>162.9499969482422</v>
+      </c>
+      <c r="U21" t="n">
+        <v>164.5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>162.6199951171875</v>
+      </c>
+      <c r="W21" t="n">
+        <v>164.0700073242188</v>
+      </c>
+      <c r="X21" t="n">
+        <v>20946500</v>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>2024-10-21</t>
+        </is>
+      </c>
+      <c r="Z21" t="n">
+        <v>188.0500030517578</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>189.4600067138672</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>186.3999938964844</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>189.0700073242188</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>24639400</v>
+      </c>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t>2024-10-21</t>
+        </is>
+      </c>
+      <c r="AL21" t="n">
+        <v>218.8999938964844</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>220.4799957275391</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>215.7299957275391</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>218.8500061035156</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>47329000</v>
+      </c>
+      <c r="AQ21" t="inlineStr">
+        <is>
+          <t>2024-10-21</t>
+        </is>
+      </c>
+      <c r="AR21" t="n">
+        <v>138.1300048828125</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>143.7100067138672</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>138</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>143.7100067138672</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>264554500</v>
+      </c>
+      <c r="AW21" t="inlineStr">
+        <is>
+          <t>2024-10-21</t>
+        </is>
+      </c>
+      <c r="AX21" t="n">
+        <v>80.31500244140625</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>81.36000061035156</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>80.04000091552734</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>80.55999755859375</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>7450300</v>
+      </c>
+      <c r="BC21" t="inlineStr">
+        <is>
+          <t>2024-10-21</t>
+        </is>
+      </c>
+      <c r="BD21" t="n">
+        <v>494.6000061035156</v>
+      </c>
+      <c r="BE21" t="n">
+        <v>500.6499938964844</v>
+      </c>
+      <c r="BF21" t="n">
+        <v>492.9599914550781</v>
+      </c>
+      <c r="BG21" t="n">
+        <v>497.7099914550781</v>
+      </c>
+      <c r="BH21" t="n">
+        <v>1679700</v>
+      </c>
+      <c r="BI21" t="inlineStr">
+        <is>
+          <t>2024-10-21</t>
+        </is>
+      </c>
+      <c r="BJ21" t="n">
+        <v>765.760009765625</v>
+      </c>
+      <c r="BK21" t="n">
+        <v>773</v>
+      </c>
+      <c r="BL21" t="n">
+        <v>756.5999755859375</v>
+      </c>
+      <c r="BM21" t="n">
+        <v>772.0700073242188</v>
+      </c>
+      <c r="BN21" t="n">
+        <v>6057100</v>
+      </c>
+      <c r="BO21" t="inlineStr">
+        <is>
+          <t>2024-10-21</t>
+        </is>
+      </c>
+      <c r="BP21" t="n">
+        <v>234.4499969482422</v>
+      </c>
+      <c r="BQ21" t="n">
+        <v>236.8500061035156</v>
+      </c>
+      <c r="BR21" t="n">
+        <v>234.4499969482422</v>
+      </c>
+      <c r="BS21" t="n">
+        <v>236.4799957275391</v>
+      </c>
+      <c r="BT21" t="n">
+        <v>36254500</v>
+      </c>
+      <c r="BU21" t="inlineStr">
+        <is>
+          <t>2024-10-21</t>
+        </is>
+      </c>
+      <c r="BV21" t="n">
+        <v>416.1199951171875</v>
+      </c>
+      <c r="BW21" t="n">
+        <v>418.9599914550781</v>
+      </c>
+      <c r="BX21" t="n">
+        <v>413.75</v>
+      </c>
+      <c r="BY21" t="n">
+        <v>418.7799987792969</v>
+      </c>
+      <c r="BZ21" t="n">
+        <v>14206100</v>
+      </c>
+      <c r="CA21" t="inlineStr">
+        <is>
+          <t>2024-10-21</t>
+        </is>
+      </c>
+      <c r="CB21" t="n">
+        <v>162.9499969482422</v>
+      </c>
+      <c r="CC21" t="n">
+        <v>164.5</v>
+      </c>
+      <c r="CD21" t="n">
+        <v>162.6199951171875</v>
+      </c>
+      <c r="CE21" t="n">
+        <v>164.0700073242188</v>
+      </c>
+      <c r="CF21" t="n">
+        <v>20946500</v>
+      </c>
+      <c r="CG21" t="inlineStr">
+        <is>
+          <t>2024-10-21</t>
+        </is>
+      </c>
+      <c r="CH21" t="n">
+        <v>188.0500030517578</v>
+      </c>
+      <c r="CI21" t="n">
+        <v>189.4600067138672</v>
+      </c>
+      <c r="CJ21" t="n">
+        <v>186.3999938964844</v>
+      </c>
+      <c r="CK21" t="n">
+        <v>189.0700073242188</v>
+      </c>
+      <c r="CL21" t="n">
+        <v>24639400</v>
+      </c>
+      <c r="CM21" t="inlineStr">
+        <is>
+          <t>2024-10-21</t>
+        </is>
+      </c>
+      <c r="CN21" t="n">
+        <v>218.8999938964844</v>
+      </c>
+      <c r="CO21" t="n">
+        <v>220.4799957275391</v>
+      </c>
+      <c r="CP21" t="n">
+        <v>215.7299957275391</v>
+      </c>
+      <c r="CQ21" t="n">
+        <v>218.8500061035156</v>
+      </c>
+      <c r="CR21" t="n">
+        <v>47329000</v>
+      </c>
+      <c r="CS21" t="inlineStr">
+        <is>
+          <t>2024-10-21</t>
+        </is>
+      </c>
+      <c r="CT21" t="n">
+        <v>138.1300048828125</v>
+      </c>
+      <c r="CU21" t="n">
+        <v>143.7100067138672</v>
+      </c>
+      <c r="CV21" t="n">
+        <v>138</v>
+      </c>
+      <c r="CW21" t="n">
+        <v>143.7100067138672</v>
+      </c>
+      <c r="CX21" t="n">
+        <v>264554500</v>
+      </c>
+      <c r="CY21" t="inlineStr">
+        <is>
+          <t>2024-10-21</t>
+        </is>
+      </c>
+      <c r="CZ21" t="n">
+        <v>80.31500244140625</v>
+      </c>
+      <c r="DA21" t="n">
+        <v>81.36000061035156</v>
+      </c>
+      <c r="DB21" t="n">
+        <v>80.04000091552734</v>
+      </c>
+      <c r="DC21" t="n">
+        <v>80.55999755859375</v>
+      </c>
+      <c r="DD21" t="n">
+        <v>7450300</v>
+      </c>
+      <c r="DE21" t="inlineStr">
+        <is>
+          <t>2024-10-21</t>
+        </is>
+      </c>
+      <c r="DF21" t="n">
+        <v>494.6000061035156</v>
+      </c>
+      <c r="DG21" t="n">
+        <v>500.6499938964844</v>
+      </c>
+      <c r="DH21" t="n">
+        <v>492.9599914550781</v>
+      </c>
+      <c r="DI21" t="n">
+        <v>497.7099914550781</v>
+      </c>
+      <c r="DJ21" t="n">
+        <v>1679700</v>
+      </c>
+      <c r="DK21" t="inlineStr">
+        <is>
+          <t>2024-10-21</t>
+        </is>
+      </c>
+      <c r="DL21" t="n">
+        <v>765.760009765625</v>
+      </c>
+      <c r="DM21" t="n">
+        <v>773</v>
+      </c>
+      <c r="DN21" t="n">
+        <v>756.5999755859375</v>
+      </c>
+      <c r="DO21" t="n">
+        <v>772.0700073242188</v>
+      </c>
+      <c r="DP21" t="n">
+        <v>6057100</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -914,6 +8684,366 @@
       <c r="F22" t="n">
         <v>38846600</v>
       </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2024-10-22</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>233.8899993896484</v>
+      </c>
+      <c r="I22" t="n">
+        <v>236.2200012207031</v>
+      </c>
+      <c r="J22" t="n">
+        <v>232.6000061035156</v>
+      </c>
+      <c r="K22" t="n">
+        <v>235.8600006103516</v>
+      </c>
+      <c r="L22" t="n">
+        <v>38846600</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>2024-10-22</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
+        <v>418.489990234375</v>
+      </c>
+      <c r="O22" t="n">
+        <v>430.5799865722656</v>
+      </c>
+      <c r="P22" t="n">
+        <v>418.0400085449219</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>427.510009765625</v>
+      </c>
+      <c r="R22" t="n">
+        <v>25482200</v>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>2024-10-22</t>
+        </is>
+      </c>
+      <c r="T22" t="n">
+        <v>162.9799957275391</v>
+      </c>
+      <c r="U22" t="n">
+        <v>165.7700042724609</v>
+      </c>
+      <c r="V22" t="n">
+        <v>162.9799957275391</v>
+      </c>
+      <c r="W22" t="n">
+        <v>165.1399993896484</v>
+      </c>
+      <c r="X22" t="n">
+        <v>16568100</v>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>2024-10-22</t>
+        </is>
+      </c>
+      <c r="Z22" t="n">
+        <v>188.3500061035156</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>191.5200042724609</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>186.9799957275391</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>189.6999969482422</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>29650600</v>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>2024-10-22</t>
+        </is>
+      </c>
+      <c r="AL22" t="n">
+        <v>217.3099975585938</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>218.2200012207031</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>215.2599945068359</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>217.9700012207031</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>43268700</v>
+      </c>
+      <c r="AQ22" t="inlineStr">
+        <is>
+          <t>2024-10-22</t>
+        </is>
+      </c>
+      <c r="AR22" t="n">
+        <v>142.9100036621094</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>144.4199981689453</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>141.7799987792969</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>143.5899963378906</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>226311600</v>
+      </c>
+      <c r="AW22" t="inlineStr">
+        <is>
+          <t>2024-10-22</t>
+        </is>
+      </c>
+      <c r="AX22" t="n">
+        <v>80.05000305175781</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>81.41999816894531</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>80.04000091552734</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>80.91000366210938</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>7571300</v>
+      </c>
+      <c r="BC22" t="inlineStr">
+        <is>
+          <t>2024-10-22</t>
+        </is>
+      </c>
+      <c r="BD22" t="n">
+        <v>496.4299926757812</v>
+      </c>
+      <c r="BE22" t="n">
+        <v>497.3399963378906</v>
+      </c>
+      <c r="BF22" t="n">
+        <v>488.3599853515625</v>
+      </c>
+      <c r="BG22" t="n">
+        <v>493.1099853515625</v>
+      </c>
+      <c r="BH22" t="n">
+        <v>2388700</v>
+      </c>
+      <c r="BI22" t="inlineStr">
+        <is>
+          <t>2024-10-22</t>
+        </is>
+      </c>
+      <c r="BJ22" t="n">
+        <v>765.27001953125</v>
+      </c>
+      <c r="BK22" t="n">
+        <v>769.7000122070312</v>
+      </c>
+      <c r="BL22" t="n">
+        <v>761.1199951171875</v>
+      </c>
+      <c r="BM22" t="n">
+        <v>764.239990234375</v>
+      </c>
+      <c r="BN22" t="n">
+        <v>2987300</v>
+      </c>
+      <c r="BO22" t="inlineStr">
+        <is>
+          <t>2024-10-22</t>
+        </is>
+      </c>
+      <c r="BP22" t="n">
+        <v>233.8899993896484</v>
+      </c>
+      <c r="BQ22" t="n">
+        <v>236.2200012207031</v>
+      </c>
+      <c r="BR22" t="n">
+        <v>232.6000061035156</v>
+      </c>
+      <c r="BS22" t="n">
+        <v>235.8600006103516</v>
+      </c>
+      <c r="BT22" t="n">
+        <v>38846600</v>
+      </c>
+      <c r="BU22" t="inlineStr">
+        <is>
+          <t>2024-10-22</t>
+        </is>
+      </c>
+      <c r="BV22" t="n">
+        <v>418.489990234375</v>
+      </c>
+      <c r="BW22" t="n">
+        <v>430.5799865722656</v>
+      </c>
+      <c r="BX22" t="n">
+        <v>418.0400085449219</v>
+      </c>
+      <c r="BY22" t="n">
+        <v>427.510009765625</v>
+      </c>
+      <c r="BZ22" t="n">
+        <v>25482200</v>
+      </c>
+      <c r="CA22" t="inlineStr">
+        <is>
+          <t>2024-10-22</t>
+        </is>
+      </c>
+      <c r="CB22" t="n">
+        <v>162.9799957275391</v>
+      </c>
+      <c r="CC22" t="n">
+        <v>165.7700042724609</v>
+      </c>
+      <c r="CD22" t="n">
+        <v>162.9799957275391</v>
+      </c>
+      <c r="CE22" t="n">
+        <v>165.1399993896484</v>
+      </c>
+      <c r="CF22" t="n">
+        <v>16568100</v>
+      </c>
+      <c r="CG22" t="inlineStr">
+        <is>
+          <t>2024-10-22</t>
+        </is>
+      </c>
+      <c r="CH22" t="n">
+        <v>188.3500061035156</v>
+      </c>
+      <c r="CI22" t="n">
+        <v>191.5200042724609</v>
+      </c>
+      <c r="CJ22" t="n">
+        <v>186.9799957275391</v>
+      </c>
+      <c r="CK22" t="n">
+        <v>189.6999969482422</v>
+      </c>
+      <c r="CL22" t="n">
+        <v>29650600</v>
+      </c>
+      <c r="CM22" t="inlineStr">
+        <is>
+          <t>2024-10-22</t>
+        </is>
+      </c>
+      <c r="CN22" t="n">
+        <v>217.3099975585938</v>
+      </c>
+      <c r="CO22" t="n">
+        <v>218.2200012207031</v>
+      </c>
+      <c r="CP22" t="n">
+        <v>215.2599945068359</v>
+      </c>
+      <c r="CQ22" t="n">
+        <v>217.9700012207031</v>
+      </c>
+      <c r="CR22" t="n">
+        <v>43268700</v>
+      </c>
+      <c r="CS22" t="inlineStr">
+        <is>
+          <t>2024-10-22</t>
+        </is>
+      </c>
+      <c r="CT22" t="n">
+        <v>142.9100036621094</v>
+      </c>
+      <c r="CU22" t="n">
+        <v>144.4199981689453</v>
+      </c>
+      <c r="CV22" t="n">
+        <v>141.7799987792969</v>
+      </c>
+      <c r="CW22" t="n">
+        <v>143.5899963378906</v>
+      </c>
+      <c r="CX22" t="n">
+        <v>226311600</v>
+      </c>
+      <c r="CY22" t="inlineStr">
+        <is>
+          <t>2024-10-22</t>
+        </is>
+      </c>
+      <c r="CZ22" t="n">
+        <v>80.05000305175781</v>
+      </c>
+      <c r="DA22" t="n">
+        <v>81.41999816894531</v>
+      </c>
+      <c r="DB22" t="n">
+        <v>80.04000091552734</v>
+      </c>
+      <c r="DC22" t="n">
+        <v>80.91000366210938</v>
+      </c>
+      <c r="DD22" t="n">
+        <v>7571300</v>
+      </c>
+      <c r="DE22" t="inlineStr">
+        <is>
+          <t>2024-10-22</t>
+        </is>
+      </c>
+      <c r="DF22" t="n">
+        <v>496.4299926757812</v>
+      </c>
+      <c r="DG22" t="n">
+        <v>497.3399963378906</v>
+      </c>
+      <c r="DH22" t="n">
+        <v>488.3599853515625</v>
+      </c>
+      <c r="DI22" t="n">
+        <v>493.1099853515625</v>
+      </c>
+      <c r="DJ22" t="n">
+        <v>2388700</v>
+      </c>
+      <c r="DK22" t="inlineStr">
+        <is>
+          <t>2024-10-22</t>
+        </is>
+      </c>
+      <c r="DL22" t="n">
+        <v>765.27001953125</v>
+      </c>
+      <c r="DM22" t="n">
+        <v>769.7000122070312</v>
+      </c>
+      <c r="DN22" t="n">
+        <v>761.1199951171875</v>
+      </c>
+      <c r="DO22" t="n">
+        <v>764.239990234375</v>
+      </c>
+      <c r="DP22" t="n">
+        <v>2987300</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -936,6 +9066,366 @@
       <c r="F23" t="n">
         <v>52037200</v>
       </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2024-10-23</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>234.0800018310547</v>
+      </c>
+      <c r="I23" t="n">
+        <v>235.1399993896484</v>
+      </c>
+      <c r="J23" t="n">
+        <v>227.7599945068359</v>
+      </c>
+      <c r="K23" t="n">
+        <v>230.7599945068359</v>
+      </c>
+      <c r="L23" t="n">
+        <v>52037200</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>2024-10-23</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
+        <v>430.8599853515625</v>
+      </c>
+      <c r="O23" t="n">
+        <v>431.0799865722656</v>
+      </c>
+      <c r="P23" t="n">
+        <v>422.5299987792969</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>424.6000061035156</v>
+      </c>
+      <c r="R23" t="n">
+        <v>19592400</v>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>2024-10-23</t>
+        </is>
+      </c>
+      <c r="T23" t="n">
+        <v>164.7599945068359</v>
+      </c>
+      <c r="U23" t="n">
+        <v>165.8200073242188</v>
+      </c>
+      <c r="V23" t="n">
+        <v>161.9299926757812</v>
+      </c>
+      <c r="W23" t="n">
+        <v>162.7799987792969</v>
+      </c>
+      <c r="X23" t="n">
+        <v>18152900</v>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>2024-10-23</t>
+        </is>
+      </c>
+      <c r="Z23" t="n">
+        <v>188.8500061035156</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>189.1600036621094</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>183.6900024414062</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>184.7100067138672</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>31733200</v>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>2024-10-23</t>
+        </is>
+      </c>
+      <c r="AL23" t="n">
+        <v>217.1300048828125</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>218.7200012207031</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>212.1100006103516</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>213.6499938964844</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>77867400</v>
+      </c>
+      <c r="AQ23" t="inlineStr">
+        <is>
+          <t>2024-10-23</t>
+        </is>
+      </c>
+      <c r="AR23" t="n">
+        <v>142.0299987792969</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>142.4299926757812</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>137.4600067138672</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>139.5599975585938</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>284973100</v>
+      </c>
+      <c r="AW23" t="inlineStr">
+        <is>
+          <t>2024-10-23</t>
+        </is>
+      </c>
+      <c r="AX23" t="n">
+        <v>81.23999786376953</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>82.23999786376953</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>80.08999633789062</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>80.83000183105469</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>7624500</v>
+      </c>
+      <c r="BC23" t="inlineStr">
+        <is>
+          <t>2024-10-23</t>
+        </is>
+      </c>
+      <c r="BD23" t="n">
+        <v>492</v>
+      </c>
+      <c r="BE23" t="n">
+        <v>493.8299865722656</v>
+      </c>
+      <c r="BF23" t="n">
+        <v>483.3900146484375</v>
+      </c>
+      <c r="BG23" t="n">
+        <v>485.0299987792969</v>
+      </c>
+      <c r="BH23" t="n">
+        <v>2018800</v>
+      </c>
+      <c r="BI23" t="inlineStr">
+        <is>
+          <t>2024-10-23</t>
+        </is>
+      </c>
+      <c r="BJ23" t="n">
+        <v>762.8300170898438</v>
+      </c>
+      <c r="BK23" t="n">
+        <v>763.7899780273438</v>
+      </c>
+      <c r="BL23" t="n">
+        <v>744.260009765625</v>
+      </c>
+      <c r="BM23" t="n">
+        <v>749.2899780273438</v>
+      </c>
+      <c r="BN23" t="n">
+        <v>3742300</v>
+      </c>
+      <c r="BO23" t="inlineStr">
+        <is>
+          <t>2024-10-23</t>
+        </is>
+      </c>
+      <c r="BP23" t="n">
+        <v>234.0800018310547</v>
+      </c>
+      <c r="BQ23" t="n">
+        <v>235.1399993896484</v>
+      </c>
+      <c r="BR23" t="n">
+        <v>227.7599945068359</v>
+      </c>
+      <c r="BS23" t="n">
+        <v>230.7599945068359</v>
+      </c>
+      <c r="BT23" t="n">
+        <v>52037200</v>
+      </c>
+      <c r="BU23" t="inlineStr">
+        <is>
+          <t>2024-10-23</t>
+        </is>
+      </c>
+      <c r="BV23" t="n">
+        <v>430.8599853515625</v>
+      </c>
+      <c r="BW23" t="n">
+        <v>431.0799865722656</v>
+      </c>
+      <c r="BX23" t="n">
+        <v>422.5299987792969</v>
+      </c>
+      <c r="BY23" t="n">
+        <v>424.6000061035156</v>
+      </c>
+      <c r="BZ23" t="n">
+        <v>19592400</v>
+      </c>
+      <c r="CA23" t="inlineStr">
+        <is>
+          <t>2024-10-23</t>
+        </is>
+      </c>
+      <c r="CB23" t="n">
+        <v>164.7599945068359</v>
+      </c>
+      <c r="CC23" t="n">
+        <v>165.8200073242188</v>
+      </c>
+      <c r="CD23" t="n">
+        <v>161.9299926757812</v>
+      </c>
+      <c r="CE23" t="n">
+        <v>162.7799987792969</v>
+      </c>
+      <c r="CF23" t="n">
+        <v>18152900</v>
+      </c>
+      <c r="CG23" t="inlineStr">
+        <is>
+          <t>2024-10-23</t>
+        </is>
+      </c>
+      <c r="CH23" t="n">
+        <v>188.8500061035156</v>
+      </c>
+      <c r="CI23" t="n">
+        <v>189.1600036621094</v>
+      </c>
+      <c r="CJ23" t="n">
+        <v>183.6900024414062</v>
+      </c>
+      <c r="CK23" t="n">
+        <v>184.7100067138672</v>
+      </c>
+      <c r="CL23" t="n">
+        <v>31733200</v>
+      </c>
+      <c r="CM23" t="inlineStr">
+        <is>
+          <t>2024-10-23</t>
+        </is>
+      </c>
+      <c r="CN23" t="n">
+        <v>217.1300048828125</v>
+      </c>
+      <c r="CO23" t="n">
+        <v>218.7200012207031</v>
+      </c>
+      <c r="CP23" t="n">
+        <v>212.1100006103516</v>
+      </c>
+      <c r="CQ23" t="n">
+        <v>213.6499938964844</v>
+      </c>
+      <c r="CR23" t="n">
+        <v>77867400</v>
+      </c>
+      <c r="CS23" t="inlineStr">
+        <is>
+          <t>2024-10-23</t>
+        </is>
+      </c>
+      <c r="CT23" t="n">
+        <v>142.0299987792969</v>
+      </c>
+      <c r="CU23" t="n">
+        <v>142.4299926757812</v>
+      </c>
+      <c r="CV23" t="n">
+        <v>137.4600067138672</v>
+      </c>
+      <c r="CW23" t="n">
+        <v>139.5599975585938</v>
+      </c>
+      <c r="CX23" t="n">
+        <v>284973100</v>
+      </c>
+      <c r="CY23" t="inlineStr">
+        <is>
+          <t>2024-10-23</t>
+        </is>
+      </c>
+      <c r="CZ23" t="n">
+        <v>81.23999786376953</v>
+      </c>
+      <c r="DA23" t="n">
+        <v>82.23999786376953</v>
+      </c>
+      <c r="DB23" t="n">
+        <v>80.08999633789062</v>
+      </c>
+      <c r="DC23" t="n">
+        <v>80.83000183105469</v>
+      </c>
+      <c r="DD23" t="n">
+        <v>7624500</v>
+      </c>
+      <c r="DE23" t="inlineStr">
+        <is>
+          <t>2024-10-23</t>
+        </is>
+      </c>
+      <c r="DF23" t="n">
+        <v>492</v>
+      </c>
+      <c r="DG23" t="n">
+        <v>493.8299865722656</v>
+      </c>
+      <c r="DH23" t="n">
+        <v>483.3900146484375</v>
+      </c>
+      <c r="DI23" t="n">
+        <v>485.0299987792969</v>
+      </c>
+      <c r="DJ23" t="n">
+        <v>2018800</v>
+      </c>
+      <c r="DK23" t="inlineStr">
+        <is>
+          <t>2024-10-23</t>
+        </is>
+      </c>
+      <c r="DL23" t="n">
+        <v>762.8300170898438</v>
+      </c>
+      <c r="DM23" t="n">
+        <v>763.7899780273438</v>
+      </c>
+      <c r="DN23" t="n">
+        <v>744.260009765625</v>
+      </c>
+      <c r="DO23" t="n">
+        <v>749.2899780273438</v>
+      </c>
+      <c r="DP23" t="n">
+        <v>3742300</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -957,6 +9447,366 @@
       </c>
       <c r="F24" t="n">
         <v>2541874</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2024-10-24</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>229.9170074462891</v>
+      </c>
+      <c r="I24" t="n">
+        <v>230.3999938964844</v>
+      </c>
+      <c r="J24" t="n">
+        <v>228.6184997558594</v>
+      </c>
+      <c r="K24" t="n">
+        <v>229.4100036621094</v>
+      </c>
+      <c r="L24" t="n">
+        <v>3360744</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>2024-10-24</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
+        <v>425.3250122070312</v>
+      </c>
+      <c r="O24" t="n">
+        <v>425.9501953125</v>
+      </c>
+      <c r="P24" t="n">
+        <v>423.2000122070312</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>423.5799865722656</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1198381</v>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>2024-10-24</t>
+        </is>
+      </c>
+      <c r="T24" t="n">
+        <v>162.9700012207031</v>
+      </c>
+      <c r="U24" t="n">
+        <v>163.1799926757812</v>
+      </c>
+      <c r="V24" t="n">
+        <v>161.0099945068359</v>
+      </c>
+      <c r="W24" t="n">
+        <v>161.2250061035156</v>
+      </c>
+      <c r="X24" t="n">
+        <v>2768280</v>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>2024-10-24</t>
+        </is>
+      </c>
+      <c r="Z24" t="n">
+        <v>185.25</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>185.6421051025391</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>183.8650054931641</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>185.4100036621094</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>2426155</v>
+      </c>
+      <c r="AK24" t="inlineStr">
+        <is>
+          <t>2024-10-24</t>
+        </is>
+      </c>
+      <c r="AL24" t="n">
+        <v>244.6000061035156</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>250.5399932861328</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>242.6499938964844</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>248.6199951171875</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>41319669</v>
+      </c>
+      <c r="AQ24" t="inlineStr">
+        <is>
+          <t>2024-10-24</t>
+        </is>
+      </c>
+      <c r="AR24" t="n">
+        <v>140.8200073242188</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>141.3500061035156</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>140.0099945068359</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>140.5200042724609</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>21906120</v>
+      </c>
+      <c r="AW24" t="inlineStr">
+        <is>
+          <t>2024-10-24</t>
+        </is>
+      </c>
+      <c r="AX24" t="n">
+        <v>81.25</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>82.31999969482422</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>81.22000122070312</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>82.06500244140625</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>939433</v>
+      </c>
+      <c r="BC24" t="inlineStr">
+        <is>
+          <t>2024-10-24</t>
+        </is>
+      </c>
+      <c r="BD24" t="n">
+        <v>486.6300048828125</v>
+      </c>
+      <c r="BE24" t="n">
+        <v>488.4700012207031</v>
+      </c>
+      <c r="BF24" t="n">
+        <v>482.8099975585938</v>
+      </c>
+      <c r="BG24" t="n">
+        <v>484.2799987792969</v>
+      </c>
+      <c r="BH24" t="n">
+        <v>162980</v>
+      </c>
+      <c r="BI24" t="inlineStr">
+        <is>
+          <t>2024-10-24</t>
+        </is>
+      </c>
+      <c r="BJ24" t="n">
+        <v>751.969970703125</v>
+      </c>
+      <c r="BK24" t="n">
+        <v>753.6699829101562</v>
+      </c>
+      <c r="BL24" t="n">
+        <v>747.364990234375</v>
+      </c>
+      <c r="BM24" t="n">
+        <v>748.7100219726562</v>
+      </c>
+      <c r="BN24" t="n">
+        <v>207488</v>
+      </c>
+      <c r="BO24" t="inlineStr">
+        <is>
+          <t>2024-10-24</t>
+        </is>
+      </c>
+      <c r="BP24" t="n">
+        <v>229.9170074462891</v>
+      </c>
+      <c r="BQ24" t="n">
+        <v>230.3999938964844</v>
+      </c>
+      <c r="BR24" t="n">
+        <v>228.6184997558594</v>
+      </c>
+      <c r="BS24" t="n">
+        <v>229</v>
+      </c>
+      <c r="BT24" t="n">
+        <v>3761872</v>
+      </c>
+      <c r="BU24" t="inlineStr">
+        <is>
+          <t>2024-10-24</t>
+        </is>
+      </c>
+      <c r="BV24" t="n">
+        <v>425.3250122070312</v>
+      </c>
+      <c r="BW24" t="n">
+        <v>425.9501953125</v>
+      </c>
+      <c r="BX24" t="n">
+        <v>423.2000122070312</v>
+      </c>
+      <c r="BY24" t="n">
+        <v>423.9140014648438</v>
+      </c>
+      <c r="BZ24" t="n">
+        <v>1309690</v>
+      </c>
+      <c r="CA24" t="inlineStr">
+        <is>
+          <t>2024-10-24</t>
+        </is>
+      </c>
+      <c r="CB24" t="n">
+        <v>162.9700012207031</v>
+      </c>
+      <c r="CC24" t="n">
+        <v>163.1799926757812</v>
+      </c>
+      <c r="CD24" t="n">
+        <v>161.0099945068359</v>
+      </c>
+      <c r="CE24" t="n">
+        <v>161.3800048828125</v>
+      </c>
+      <c r="CF24" t="n">
+        <v>3339614</v>
+      </c>
+      <c r="CG24" t="inlineStr">
+        <is>
+          <t>2024-10-24</t>
+        </is>
+      </c>
+      <c r="CH24" t="n">
+        <v>185.25</v>
+      </c>
+      <c r="CI24" t="n">
+        <v>185.75</v>
+      </c>
+      <c r="CJ24" t="n">
+        <v>183.8650054931641</v>
+      </c>
+      <c r="CK24" t="n">
+        <v>185.4700012207031</v>
+      </c>
+      <c r="CL24" t="n">
+        <v>2717604</v>
+      </c>
+      <c r="CM24" t="inlineStr">
+        <is>
+          <t>2024-10-24</t>
+        </is>
+      </c>
+      <c r="CN24" t="n">
+        <v>244.6000061035156</v>
+      </c>
+      <c r="CO24" t="n">
+        <v>250.5399932861328</v>
+      </c>
+      <c r="CP24" t="n">
+        <v>242.6499938964844</v>
+      </c>
+      <c r="CQ24" t="n">
+        <v>249.3099975585938</v>
+      </c>
+      <c r="CR24" t="n">
+        <v>45353317</v>
+      </c>
+      <c r="CS24" t="inlineStr">
+        <is>
+          <t>2024-10-24</t>
+        </is>
+      </c>
+      <c r="CT24" t="n">
+        <v>140.8200073242188</v>
+      </c>
+      <c r="CU24" t="n">
+        <v>141.3500061035156</v>
+      </c>
+      <c r="CV24" t="n">
+        <v>140.0099945068359</v>
+      </c>
+      <c r="CW24" t="n">
+        <v>140.3200988769531</v>
+      </c>
+      <c r="CX24" t="n">
+        <v>24305989</v>
+      </c>
+      <c r="CY24" t="inlineStr">
+        <is>
+          <t>2024-10-24</t>
+        </is>
+      </c>
+      <c r="CZ24" t="n">
+        <v>81.25</v>
+      </c>
+      <c r="DA24" t="n">
+        <v>82.31999969482422</v>
+      </c>
+      <c r="DB24" t="n">
+        <v>81.22000122070312</v>
+      </c>
+      <c r="DC24" t="n">
+        <v>81.87000274658203</v>
+      </c>
+      <c r="DD24" t="n">
+        <v>1117497</v>
+      </c>
+      <c r="DE24" t="inlineStr">
+        <is>
+          <t>2024-10-24</t>
+        </is>
+      </c>
+      <c r="DF24" t="n">
+        <v>486.6300048828125</v>
+      </c>
+      <c r="DG24" t="n">
+        <v>488.4700012207031</v>
+      </c>
+      <c r="DH24" t="n">
+        <v>482.8099975585938</v>
+      </c>
+      <c r="DI24" t="n">
+        <v>484.9200134277344</v>
+      </c>
+      <c r="DJ24" t="n">
+        <v>202707</v>
+      </c>
+      <c r="DK24" t="inlineStr">
+        <is>
+          <t>2024-10-24</t>
+        </is>
+      </c>
+      <c r="DL24" t="n">
+        <v>751.969970703125</v>
+      </c>
+      <c r="DM24" t="n">
+        <v>753.6699829101562</v>
+      </c>
+      <c r="DN24" t="n">
+        <v>747.364990234375</v>
+      </c>
+      <c r="DO24" t="n">
+        <v>747.8994140625</v>
+      </c>
+      <c r="DP24" t="n">
+        <v>242388</v>
       </c>
     </row>
   </sheetData>
